--- a/医疗AI.xlsx
+++ b/医疗AI.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="869">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -1216,6 +1216,9 @@
   </si>
   <si>
     <t xml:space="preserve">FovS_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用ThreadDataLoader时死机了，还是用回DataLoader</t>
   </si>
   <si>
     <t xml:space="preserve">增强项</t>
@@ -2773,98 +2776,79 @@
 每5个epoch衰减为90%的策略衰减太慢，50个epoch后仍高达 1e-5 * 0.9^10 ≈ 3.5e-6，仍较高。</t>
   </si>
   <si>
+    <t xml:space="preserve">数据检查和数据预处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据分析EDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">构建模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">构建训练pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">训练多个模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">并行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">构建评估pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">评估模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">构建测试pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">制作训练，评估，测试报告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编写操作手册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sc:document --technical --markdown --maintain --persona-mentor --think-hard "这是一个使用Monai框架来训练4D Lung CBCT数据的代码，目的通过训练的模型来生成去除原始图像中的各种噪音和运动伪影的图像。数据简介：FovL，FovS_180，FovS_360代表三种角度的数据，每组数据中的subject_xxxx代表不同的患者，目前每组里有22个患者。每组患者目录下又包含5个不同phase数据（phase_00-phase_04）和prior数据，每个phase数据下又包含img带噪声数据和gt清洗不带噪声的标签数据。EDA.py代码是数据分析代码,config.py是配置文件，img_reader.py是自定义读取数据的reader，metrics.py是自定义的一个metric函数，model_Nnet.py定义了NNet的模型结构，train.py是训练代码，validation.py是评估代码，test.py是测试代码，请使用markdown格式写这个项目的readme文件" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sc:document --technical --markdown --maintain --persona-mentor --think-hard "这是一个使用Monai框架来训练4D Lung                                                            │
+│   CBCT数据的代码，目的是去除原始图像中的各种噪音和运动伪影。EDA.py是对数据分析的代码。数据简介：FovL，FovS_180，FovS_360代表三种角度的数据，每组数据中的subject_xx  │
+│   xx代表不同的患者，目前每组里有22个患者。每组患者目录下又包含5个不同phase数据（phase_00-phase_04）和prior数据，每个phase数据下又包含img带噪声数据和gt清洗不带噪声的标签数据  │
+│   。EDA.py代码里面有些数据分析对图像来说意义不大，一些有意义的数据分析还有遗漏，比如说缺少分别在FovL，FovS_180，FovS_360下分析同一名患者的同一组img，prior和gt数据并显示。分  │
+│   析同一名患者的同一个位置，不同phase（5个）的信息并显示等，请先分析EDA.py代码，并改进" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">关于图像数据 EDA 分析，我觉得还应该追加一些更方便观察的图像，比如：分别在FovL，FovS_180，FovS_360下，分析同一名患者的同一组img，prior和gt数据并显示，每一个phase都显示一张图，横轴显示：img，prior，gt，纵轴显示：FovL，FovS_180，FovS_360。分析同一名患者的同一个位置，不同phase（5个）的信息并显示，横轴显示：phase_00，phase_01，phase_02，phase_03，phase_04,prior,纵轴显示：FovL，FovS_180，FovS_360等等。可以排列组合的因素：拍摄方式（FovL，FovS_180，FovS_360），不同人（subject_xxxx），phase（phase_00...phase_04）,图像种类（img，prior，gt），不同位置的图像（axl0000.img...axl0383.img），总之变化组合使用这5种属性中的两个，固定另外三个，应该就能生成一种有意义的矩阵图像，你帮我仔细研究怎么排列组合，增加一些显示图像用来帮助我们有意义地观察图像。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用SmartCacheDataset或CacheDataset可以加快训练速度，因为数据量大，训练会很花时间，使用Monai可以节省大量训练时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下图展示了与常规 PyTorch 程序相比，训练速度的提升。https://docs.monai.org.cn/en/stable/modules.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.csdn.net/u014264373/article/details/113701037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubuntu启动失败黑屏时，按Ctrl+F3，登录进入命令行查看错误</t>
+  </si>
+  <si>
+    <t xml:space="preserve">journalctl -b0 | grep -i error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般是挂载错误，需要重新挂载硬盘</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">数据检查和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">数据预处理</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">数据分析EDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">构建模型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">构建训练pipeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">训练多个模型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">并行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">构建评估pipeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">评估模型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">构建测试pipeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试模型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">制作训练，评估，测试报告</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编写操作手册</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sc:document --technical --markdown --maintain --persona-mentor --think-hard "这是一个使用Monai框架来训练4D Lung CBCT数据的代码，目的通过训练的模型来生成去除原始图像中的各种噪音和运动伪影的图像。数据简介：FovL，FovS_180，FovS_360代表三种角度的数据，每组数据中的subject_xxxx代表不同的患者，目前每组里有22个患者。每组患者目录下又包含5个不同phase数据（phase_00-phase_04）和prior数据，每个phase数据下又包含img带噪声数据和gt清洗不带噪声的标签数据。EDA.py代码是数据分析代码,config.py是配置文件，img_reader.py是自定义读取数据的reader，metrics.py是自定义的一个metric函数，model_Nnet.py定义了NNet的模型结构，train.py是训练代码，validation.py是评估代码，test.py是测试代码，请使用markdown格式写这个项目的readme文件" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sc:document --technical --markdown --maintain --persona-mentor --think-hard "这是一个使用Monai框架来训练4D Lung                                                            │
-│   CBCT数据的代码，目的是去除原始图像中的各种噪音和运动伪影。EDA.py是对数据分析的代码。数据简介：FovL，FovS_180，FovS_360代表三种角度的数据，每组数据中的subject_xx  │
-│   xx代表不同的患者，目前每组里有22个患者。每组患者目录下又包含5个不同phase数据（phase_00-phase_04）和prior数据，每个phase数据下又包含img带噪声数据和gt清洗不带噪声的标签数据  │
-│   。EDA.py代码里面有些数据分析对图像来说意义不大，一些有意义的数据分析还有遗漏，比如说缺少分别在FovL，FovS_180，FovS_360下分析同一名患者的同一组img，prior和gt数据并显示。分  │
-│   析同一名患者的同一个位置，不同phase（5个）的信息并显示等，请先分析EDA.py代码，并改进" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">关于图像数据 EDA 分析，我觉得还应该追加一些更方便观察的图像，比如：分别在FovL，FovS_180，FovS_360下，分析同一名患者的同一组img，prior和gt数据并显示，每一个phase都显示一张图，横轴显示：img，prior，gt，纵轴显示：FovL，FovS_180，FovS_360。分析同一名患者的同一个位置，不同phase（5个）的信息并显示，横轴显示：phase_00，phase_01，phase_02，phase_03，phase_04,prior,纵轴显示：FovL，FovS_180，FovS_360等等。可以排列组合的因素：拍摄方式（FovL，FovS_180，FovS_360），不同人（subject_xxxx），phase（phase_00...phase_04）,图像种类（img，prior，gt），不同位置的图像（axl0000.img...axl0383.img），总之变化组合使用这5种属性中的两个，固定另外三个，应该就能生成一种有意义的矩阵图像，你帮我仔细研究怎么排列组合，增加一些显示图像用来帮助我们有意义地观察图像。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使用SmartCacheDataset或CacheDataset可以加快训练速度，因为数据量大，训练会很花时间，使用Monai可以节省大量训练时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下图展示了与常规 PyTorch 程序相比，训练速度的提升。https://docs.monai.org.cn/en/stable/modules.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://blog.csdn.net/u014264373/article/details/113701037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubuntu启动失败黑屏时，按Ctrl+F3，登录进入命令行查看错误</t>
-  </si>
-  <si>
-    <t xml:space="preserve">journalctl -b0 | grep -i error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一般是挂载错误，需要重新挂载硬盘</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">sudo mount /dev/sda1 /</t>
     </r>
@@ -2875,7 +2859,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">media</t>
     </r>
@@ -2885,7 +2868,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/zzg/GJ_disk01</t>
     </r>
@@ -2910,13 +2892,12 @@
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
     <numFmt numFmtId="167" formatCode="yy\年m\月d\日"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2934,18 +2915,11 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3014,7 +2988,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3028,10 +3002,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3076,10 +3046,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3182,9 +3148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5918760</xdr:colOff>
+      <xdr:colOff>5918400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3197,8 +3163,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="811440" y="613800"/>
-          <a:ext cx="5918760" cy="2972880"/>
+          <a:off x="810720" y="613800"/>
+          <a:ext cx="5918400" cy="2972520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3224,7 +3190,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.17"/>
@@ -3631,7 +3597,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.56"/>
@@ -3692,7 +3658,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
@@ -3741,7 +3707,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
@@ -3802,7 +3768,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.97"/>
@@ -4077,13 +4043,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="5" t="n">
         <v>20250701</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.4</v>
       </c>
       <c r="D6" s="3" t="n">
@@ -4097,45 +4063,45 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6" t="n">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="n">
         <v>0.03336</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="5" t="n">
         <v>0.0306</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="5" t="n">
         <v>0.00985</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="5" t="n">
         <v>30.36874</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="5" t="n">
         <v>0.92687</v>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="6" t="n">
+      <c r="Q6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="6" t="n">
+      <c r="R6" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6" t="s">
+      <c r="T6" s="5"/>
+      <c r="U6" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="5" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4163,10 +4129,10 @@
       <c r="I7" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="P7" s="6" t="n">
+      <c r="P7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="6" t="n">
+      <c r="Q7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="0" t="n">
@@ -4227,10 +4193,10 @@
       <c r="O8" s="0" t="n">
         <v>0.9048</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="Q8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="0" t="n">
@@ -4250,13 +4216,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="5" t="n">
         <v>20250702</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="5" t="n">
         <v>0.4</v>
       </c>
       <c r="D9" s="3" t="n">
@@ -4270,109 +4236,109 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="n">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="n">
         <v>0.02267</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="5" t="n">
         <v>0.03022</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>0.00892</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="5" t="n">
         <v>30.48179</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="5" t="n">
         <v>0.93624</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="6" t="n">
         <v>20250702</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="n">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="n">
         <v>0.07855</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="6" t="n">
         <v>0.05256</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="M10" s="6" t="n">
         <v>0.02055</v>
       </c>
-      <c r="N10" s="7" t="n">
+      <c r="N10" s="6" t="n">
         <v>25.6038</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="6" t="n">
         <v>0.85403</v>
       </c>
-      <c r="P10" s="7" t="n">
+      <c r="P10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="7" t="n">
+      <c r="Q10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="7" t="n">
+      <c r="R10" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="S10" s="7" t="n">
+      <c r="S10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="T10" s="7" t="n">
+      <c r="T10" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="9" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4415,19 +4381,19 @@
       <c r="O11" s="0" t="n">
         <v>0.91818</v>
       </c>
-      <c r="P11" s="6" t="n">
+      <c r="P11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="6" t="n">
+      <c r="Q11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="6" t="n">
+      <c r="R11" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="T11" s="6" t="n">
+      <c r="T11" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U11" s="0" t="s">
@@ -4438,13 +4404,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="5" t="n">
         <v>20250702</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.4</v>
       </c>
       <c r="D12" s="3" t="n">
@@ -4458,49 +4424,49 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J12" s="6" t="n">
+      <c r="J12" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12" s="5" t="n">
         <v>0.032219</v>
       </c>
       <c r="L12" s="3" t="n">
         <v>0.028813</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="5" t="n">
         <v>0.009214</v>
       </c>
-      <c r="N12" s="6" t="n">
+      <c r="N12" s="5" t="n">
         <v>30.864619</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="5" t="n">
         <v>0.938183</v>
       </c>
-      <c r="P12" s="6" t="n">
+      <c r="P12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" s="6" t="n">
+      <c r="Q12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R12" s="6" t="n">
+      <c r="R12" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="T12" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="W12" s="5" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4508,7 +4474,7 @@
       <c r="A13" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="5" t="n">
         <v>20250703</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -4523,13 +4489,13 @@
       <c r="F13" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="10" t="n">
         <v>2E-007</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="10" t="n">
         <v>2E-005</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>246</v>
       </c>
       <c r="J13" s="0" t="n">
@@ -4550,19 +4516,19 @@
       <c r="O13" s="0" t="n">
         <v>0.914611</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="P13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="6" t="n">
+      <c r="Q13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R13" s="6" t="n">
+      <c r="R13" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="T13" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U13" s="0" t="s">
@@ -4579,7 +4545,7 @@
       <c r="A14" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="5" t="n">
         <v>20250703</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -4594,13 +4560,13 @@
       <c r="F14" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="10" t="n">
         <v>2E-007</v>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="10" t="n">
         <v>2E-005</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>246</v>
       </c>
       <c r="J14" s="0" t="n">
@@ -4621,19 +4587,19 @@
       <c r="O14" s="0" t="n">
         <v>0.913792</v>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="P14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" s="6" t="n">
+      <c r="Q14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="6" t="n">
+      <c r="R14" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="T14" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U14" s="0" t="s">
@@ -4647,67 +4613,67 @@
       <c r="A15" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="5" t="n">
         <v>20250703</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="G15" s="11" t="n">
         <v>6E-007</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="11" t="n">
         <v>6E-005</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J15" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="5" t="n">
         <v>0.026168</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="5" t="n">
         <v>0.029891</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="5" t="n">
         <v>0.009364</v>
       </c>
-      <c r="N15" s="6" t="n">
+      <c r="N15" s="5" t="n">
         <v>30.577414</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="5" t="n">
         <v>0.936019</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R15" s="6" t="n">
+      <c r="R15" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="T15" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="U15" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="5" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4715,67 +4681,67 @@
       <c r="A16" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="5" t="n">
         <v>20250703</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="G16" s="12" t="n">
+      <c r="G16" s="11" t="n">
         <v>1E-007</v>
       </c>
-      <c r="H16" s="12" t="n">
+      <c r="H16" s="11" t="n">
         <v>6E-005</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="5" t="n">
         <v>0.025005</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="5" t="n">
         <v>0.031149</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="5" t="n">
         <v>0.0083829</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="5" t="n">
         <v>30.17071</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="5" t="n">
         <v>0.9365</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="Q16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R16" s="6" t="n">
+      <c r="R16" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="U16" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="5" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4783,10 +4749,10 @@
       <c r="A17" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="5" t="n">
         <v>20250704</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="5" t="n">
         <v>0.4</v>
       </c>
       <c r="D17" s="3" t="n">
@@ -4798,43 +4764,43 @@
       <c r="F17" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G17" s="11" t="n">
         <v>2E-007</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="11" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J17" s="6" t="n">
+      <c r="J17" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="5" t="n">
         <v>0.02684</v>
       </c>
-      <c r="L17" s="6" t="n">
+      <c r="L17" s="5" t="n">
         <v>0.031054</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="5" t="n">
         <v>0.008771</v>
       </c>
-      <c r="N17" s="6" t="n">
+      <c r="N17" s="5" t="n">
         <v>30.227817</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="5" t="n">
         <v>0.938409</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="P17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="6" t="n">
+      <c r="Q17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="6" t="n">
+      <c r="R17" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="5" t="s">
         <v>257</v>
       </c>
       <c r="T17" s="0" t="n">
@@ -4854,10 +4820,10 @@
       <c r="A18" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B18" s="6" t="n">
+      <c r="B18" s="5" t="n">
         <v>20250704</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="5" t="n">
         <v>0.4</v>
       </c>
       <c r="D18" s="3" t="n">
@@ -4869,66 +4835,66 @@
       <c r="F18" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="11" t="n">
         <v>2E-007</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="11" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J18" s="6" t="n">
+      <c r="J18" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="K18" s="6" t="n">
+      <c r="K18" s="5" t="n">
         <v>0.025839</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="5" t="n">
         <v>0.027598</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="5" t="n">
         <v>0.008822</v>
       </c>
-      <c r="N18" s="6" t="n">
+      <c r="N18" s="5" t="n">
         <v>31.467262</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="5" t="n">
         <v>0.942267</v>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="P18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" s="6" t="n">
+      <c r="Q18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R18" s="6" t="n">
+      <c r="R18" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="T18" s="6" t="n">
+      <c r="T18" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="U18" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="V18" s="6" t="s">
+      <c r="V18" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="W18" s="6" t="s">
+      <c r="W18" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" s="5" t="n">
         <v>20250706</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="5" t="n">
         <v>0.4</v>
       </c>
       <c r="D19" s="3" t="n">
@@ -4940,55 +4906,55 @@
       <c r="F19" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" s="11" t="n">
         <v>2E-007</v>
       </c>
-      <c r="H19" s="12" t="n">
+      <c r="H19" s="11" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J19" s="6" t="n">
+      <c r="J19" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="K19" s="6" t="n">
+      <c r="K19" s="5" t="n">
         <v>0.026724</v>
       </c>
-      <c r="L19" s="6" t="n">
+      <c r="L19" s="5" t="n">
         <v>0.028806</v>
       </c>
-      <c r="M19" s="6" t="n">
+      <c r="M19" s="5" t="n">
         <v>0.008822</v>
       </c>
-      <c r="N19" s="6" t="n">
+      <c r="N19" s="5" t="n">
         <v>30.909978</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="5" t="n">
         <v>0.941041</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="P19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" s="6" t="n">
+      <c r="Q19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R19" s="6" t="n">
+      <c r="R19" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="T19" s="6" t="n">
+      <c r="T19" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="U19" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="W19" s="6" t="s">
+      <c r="W19" s="5" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4996,10 +4962,10 @@
       <c r="A20" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B20" s="6" t="n">
+      <c r="B20" s="5" t="n">
         <v>20250706</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="5" t="n">
         <v>0.4</v>
       </c>
       <c r="D20" s="3" t="n">
@@ -5011,13 +4977,13 @@
       <c r="F20" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="H20" s="12" t="n">
+      <c r="H20" s="11" t="n">
         <v>4E-005</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>246</v>
       </c>
       <c r="J20" s="0" t="n">
@@ -5038,19 +5004,19 @@
       <c r="O20" s="0" t="n">
         <v>0.939659</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" s="6" t="n">
+      <c r="Q20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R20" s="6" t="n">
+      <c r="R20" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="T20" s="6" t="n">
+      <c r="T20" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U20" s="0" t="s">
@@ -5059,353 +5025,353 @@
       <c r="V20" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="W20" s="6" t="s">
+      <c r="W20" s="5" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+      <c r="A21" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="B21" s="13" t="n">
+      <c r="B21" s="12" t="n">
         <v>20250707</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D21" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F21" s="14" t="n">
+      <c r="F21" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="G21" s="15" t="n">
+      <c r="G21" s="14" t="n">
         <v>1E-006</v>
       </c>
-      <c r="H21" s="15" t="n">
+      <c r="H21" s="14" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J21" s="13" t="n">
+      <c r="J21" s="12" t="n">
         <v>96</v>
       </c>
-      <c r="K21" s="13" t="n">
+      <c r="K21" s="12" t="n">
         <v>0.019228</v>
       </c>
-      <c r="L21" s="13" t="n">
+      <c r="L21" s="12" t="n">
         <v>0.024223</v>
       </c>
-      <c r="M21" s="13" t="n">
+      <c r="M21" s="12" t="n">
         <v>0.007336</v>
       </c>
-      <c r="N21" s="13" t="n">
+      <c r="N21" s="12" t="n">
         <v>32.518534</v>
       </c>
-      <c r="O21" s="13" t="n">
+      <c r="O21" s="12" t="n">
         <v>0.953989</v>
       </c>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T21" s="13" t="n">
+      <c r="T21" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="U21" s="13" t="s">
+      <c r="U21" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="V21" s="13" t="s">
+      <c r="V21" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="W21" s="13" t="s">
+      <c r="W21" s="12" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
+      <c r="A22" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="B22" s="13" t="n">
+      <c r="B22" s="12" t="n">
         <v>20250708</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="D22" s="14" t="n">
+      <c r="D22" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E22" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F22" s="14" t="n">
+      <c r="F22" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="G22" s="15" t="n">
+      <c r="G22" s="14" t="n">
         <v>1E-006</v>
       </c>
-      <c r="H22" s="15" t="n">
+      <c r="H22" s="14" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J22" s="13" t="n">
+      <c r="J22" s="12" t="n">
         <v>116</v>
       </c>
-      <c r="K22" s="13" t="n">
+      <c r="K22" s="12" t="n">
         <v>0.017855</v>
       </c>
-      <c r="L22" s="13" t="n">
+      <c r="L22" s="12" t="n">
         <v>0.023438</v>
       </c>
-      <c r="M22" s="13" t="n">
+      <c r="M22" s="12" t="n">
         <v>0.007206</v>
       </c>
-      <c r="N22" s="13" t="n">
+      <c r="N22" s="12" t="n">
         <v>32.833047</v>
       </c>
-      <c r="O22" s="13" t="n">
+      <c r="O22" s="12" t="n">
         <v>0.957528</v>
       </c>
-      <c r="P22" s="13" t="n">
+      <c r="P22" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" s="13" t="n">
+      <c r="Q22" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="13" t="n">
+      <c r="R22" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T22" s="13" t="n">
+      <c r="T22" s="12" t="n">
         <v>130</v>
       </c>
-      <c r="U22" s="13" t="s">
+      <c r="U22" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="V22" s="13" t="s">
+      <c r="V22" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="W22" s="13" t="s">
+      <c r="W22" s="12" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
+      <c r="A23" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="B23" s="13" t="n">
+      <c r="B23" s="12" t="n">
         <v>20250709</v>
       </c>
-      <c r="C23" s="13" t="n">
+      <c r="C23" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="D23" s="14" t="n">
+      <c r="D23" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E23" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F23" s="14" t="n">
+      <c r="F23" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="G23" s="15" t="n">
+      <c r="G23" s="14" t="n">
         <v>1E-006</v>
       </c>
-      <c r="H23" s="15" t="n">
+      <c r="H23" s="14" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J23" s="13" t="n">
+      <c r="J23" s="12" t="n">
         <v>37</v>
       </c>
-      <c r="K23" s="13" t="n">
+      <c r="K23" s="12" t="n">
         <v>0.021066</v>
       </c>
-      <c r="L23" s="13" t="n">
+      <c r="L23" s="12" t="n">
         <v>0.024974</v>
       </c>
-      <c r="M23" s="13" t="n">
+      <c r="M23" s="12" t="n">
         <v>0.0081642</v>
       </c>
-      <c r="N23" s="13" t="n">
+      <c r="N23" s="12" t="n">
         <v>32.27242</v>
       </c>
-      <c r="O23" s="13" t="n">
+      <c r="O23" s="12" t="n">
         <v>0.95064</v>
       </c>
-      <c r="P23" s="13" t="n">
+      <c r="P23" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" s="13" t="n">
+      <c r="Q23" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R23" s="13" t="n">
+      <c r="R23" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T23" s="13" t="n">
+      <c r="T23" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="U23" s="13" t="s">
+      <c r="U23" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="V23" s="13" t="s">
+      <c r="V23" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="W23" s="13" t="s">
+      <c r="W23" s="12" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
+      <c r="A24" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="B24" s="13" t="n">
+      <c r="B24" s="12" t="n">
         <v>20250709</v>
       </c>
-      <c r="C24" s="13" t="n">
+      <c r="C24" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F24" s="14" t="n">
+      <c r="F24" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="G24" s="15" t="n">
+      <c r="G24" s="14" t="n">
         <v>1E-006</v>
       </c>
-      <c r="H24" s="15" t="n">
+      <c r="H24" s="14" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J24" s="13" t="n">
+      <c r="J24" s="12" t="n">
         <v>78</v>
       </c>
-      <c r="K24" s="13" t="n">
+      <c r="K24" s="12" t="n">
         <v>0.015283</v>
       </c>
-      <c r="L24" s="13" t="n">
+      <c r="L24" s="12" t="n">
         <v>0.020728</v>
       </c>
-      <c r="M24" s="13" t="n">
+      <c r="M24" s="12" t="n">
         <v>0.006036</v>
       </c>
-      <c r="N24" s="13" t="n">
+      <c r="N24" s="12" t="n">
         <v>33.840115</v>
       </c>
-      <c r="O24" s="13" t="n">
+      <c r="O24" s="12" t="n">
         <v>0.962927</v>
       </c>
-      <c r="P24" s="13" t="n">
+      <c r="P24" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" s="13" t="n">
+      <c r="Q24" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R24" s="13" t="n">
+      <c r="R24" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="S24" s="13" t="s">
+      <c r="S24" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="T24" s="13" t="n">
+      <c r="T24" s="12" t="n">
         <v>90</v>
       </c>
-      <c r="U24" s="13" t="s">
+      <c r="U24" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="V24" s="13" t="s">
+      <c r="V24" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="W24" s="13" t="s">
+      <c r="W24" s="12" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
+      <c r="A25" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="B25" s="13" t="n">
+      <c r="B25" s="12" t="n">
         <v>20250710</v>
       </c>
-      <c r="C25" s="13" t="n">
+      <c r="C25" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="D25" s="14" t="n">
+      <c r="D25" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E25" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F25" s="14" t="n">
+      <c r="F25" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="G25" s="15" t="n">
+      <c r="G25" s="14" t="n">
         <v>1E-006</v>
       </c>
-      <c r="H25" s="15" t="n">
+      <c r="H25" s="14" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J25" s="13" t="n">
+      <c r="J25" s="12" t="n">
         <v>78</v>
       </c>
-      <c r="K25" s="13" t="n">
+      <c r="K25" s="12" t="n">
         <v>0.025466</v>
       </c>
-      <c r="L25" s="13" t="n">
+      <c r="L25" s="12" t="n">
         <v>0.028383</v>
       </c>
-      <c r="M25" s="13" t="n">
+      <c r="M25" s="12" t="n">
         <v>0.007618</v>
       </c>
-      <c r="N25" s="13" t="n">
+      <c r="N25" s="12" t="n">
         <v>30.96068</v>
       </c>
-      <c r="O25" s="13" t="n">
+      <c r="O25" s="12" t="n">
         <v>0.939194</v>
       </c>
-      <c r="P25" s="13" t="n">
+      <c r="P25" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" s="13" t="n">
+      <c r="Q25" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R25" s="13" t="n">
+      <c r="R25" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="T25" s="13" t="n">
+      <c r="T25" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U25" s="0" t="s">
@@ -5414,69 +5380,69 @@
       <c r="V25" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="W25" s="13" t="s">
+      <c r="W25" s="12" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+      <c r="A26" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="B26" s="13" t="n">
+      <c r="B26" s="12" t="n">
         <v>20250710</v>
       </c>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="D26" s="14" t="n">
+      <c r="D26" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E26" s="14" t="n">
+      <c r="E26" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F26" s="14" t="n">
+      <c r="F26" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="G26" s="15" t="n">
+      <c r="G26" s="14" t="n">
         <v>1E-006</v>
       </c>
-      <c r="H26" s="15" t="n">
+      <c r="H26" s="14" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J26" s="13" t="n">
+      <c r="J26" s="12" t="n">
         <v>85</v>
       </c>
-      <c r="K26" s="13" t="n">
+      <c r="K26" s="12" t="n">
         <v>0.014722</v>
       </c>
-      <c r="L26" s="13" t="n">
+      <c r="L26" s="12" t="n">
         <v>0.020373</v>
       </c>
-      <c r="M26" s="13" t="n">
+      <c r="M26" s="12" t="n">
         <v>0.006444</v>
       </c>
-      <c r="N26" s="13" t="n">
+      <c r="N26" s="12" t="n">
         <v>34.08511</v>
       </c>
-      <c r="O26" s="13" t="n">
+      <c r="O26" s="12" t="n">
         <v>0.963851</v>
       </c>
-      <c r="P26" s="13" t="n">
+      <c r="P26" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q26" s="13" t="n">
+      <c r="Q26" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R26" s="13" t="n">
+      <c r="R26" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="S26" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T26" s="13" t="n">
+      <c r="T26" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U26" s="0" t="s">
@@ -5485,69 +5451,69 @@
       <c r="V26" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="W26" s="13" t="s">
+      <c r="W26" s="12" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
+      <c r="A27" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="B27" s="13" t="n">
+      <c r="B27" s="12" t="n">
         <v>20250711</v>
       </c>
-      <c r="C27" s="13" t="n">
+      <c r="C27" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="D27" s="14" t="n">
+      <c r="D27" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E27" s="14" t="n">
+      <c r="E27" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F27" s="14" t="n">
+      <c r="F27" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="G27" s="15" t="n">
+      <c r="G27" s="14" t="n">
         <v>1E-006</v>
       </c>
-      <c r="H27" s="15" t="n">
+      <c r="H27" s="14" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J27" s="13" t="n">
+      <c r="J27" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="K27" s="13" t="n">
+      <c r="K27" s="12" t="n">
         <v>0.013944</v>
       </c>
-      <c r="L27" s="13" t="n">
+      <c r="L27" s="12" t="n">
         <v>0.019187</v>
       </c>
-      <c r="M27" s="13" t="n">
+      <c r="M27" s="12" t="n">
         <v>0.006201</v>
       </c>
-      <c r="N27" s="13" t="n">
+      <c r="N27" s="12" t="n">
         <v>34.623019</v>
       </c>
-      <c r="O27" s="13" t="n">
+      <c r="O27" s="12" t="n">
         <v>0.965974</v>
       </c>
-      <c r="P27" s="13" t="n">
+      <c r="P27" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" s="13" t="n">
+      <c r="Q27" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R27" s="13" t="n">
+      <c r="R27" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T27" s="13" t="n">
+      <c r="T27" s="12" t="n">
         <v>50</v>
       </c>
       <c r="U27" s="0" t="s">
@@ -5556,69 +5522,69 @@
       <c r="V27" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="W27" s="13" t="s">
+      <c r="W27" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+      <c r="A28" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="B28" s="13" t="n">
+      <c r="B28" s="12" t="n">
         <v>20250711</v>
       </c>
-      <c r="C28" s="13" t="n">
+      <c r="C28" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="D28" s="14" t="n">
+      <c r="D28" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E28" s="14" t="n">
+      <c r="E28" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F28" s="14" t="n">
+      <c r="F28" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="G28" s="15" t="n">
+      <c r="G28" s="14" t="n">
         <v>1E-006</v>
       </c>
-      <c r="H28" s="15" t="n">
+      <c r="H28" s="14" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J28" s="13" t="n">
+      <c r="J28" s="12" t="n">
         <v>93</v>
       </c>
-      <c r="K28" s="13" t="n">
+      <c r="K28" s="12" t="n">
         <v>0.012292</v>
       </c>
-      <c r="L28" s="13" t="n">
+      <c r="L28" s="12" t="n">
         <v>0.016666</v>
       </c>
-      <c r="M28" s="13" t="n">
+      <c r="M28" s="12" t="n">
         <v>0.005184</v>
       </c>
-      <c r="N28" s="13" t="n">
+      <c r="N28" s="12" t="n">
         <v>35.805045</v>
       </c>
-      <c r="O28" s="13" t="n">
+      <c r="O28" s="12" t="n">
         <v>0.970037</v>
       </c>
-      <c r="P28" s="13" t="n">
+      <c r="P28" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q28" s="13" t="n">
+      <c r="Q28" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R28" s="13" t="n">
+      <c r="R28" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="S28" s="13" t="s">
+      <c r="S28" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T28" s="13" t="n">
+      <c r="T28" s="12" t="n">
         <v>100</v>
       </c>
       <c r="U28" s="0" t="s">
@@ -5627,69 +5593,69 @@
       <c r="V28" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="W28" s="13" t="s">
+      <c r="W28" s="12" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
+      <c r="A29" s="12" t="n">
         <v>31</v>
       </c>
-      <c r="B29" s="13" t="n">
+      <c r="B29" s="12" t="n">
         <v>20250712</v>
       </c>
-      <c r="C29" s="13" t="n">
+      <c r="C29" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="D29" s="14" t="n">
+      <c r="D29" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E29" s="14" t="n">
+      <c r="E29" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F29" s="14" t="n">
+      <c r="F29" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="14" t="n">
         <v>1E-006</v>
       </c>
-      <c r="H29" s="15" t="n">
+      <c r="H29" s="14" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J29" s="13" t="n">
+      <c r="J29" s="12" t="n">
         <v>66</v>
       </c>
-      <c r="K29" s="13" t="n">
+      <c r="K29" s="12" t="n">
         <v>0.013309</v>
       </c>
-      <c r="L29" s="13" t="n">
+      <c r="L29" s="12" t="n">
         <v>0.01858</v>
       </c>
-      <c r="M29" s="13" t="n">
+      <c r="M29" s="12" t="n">
         <v>0.005682</v>
       </c>
-      <c r="N29" s="13" t="n">
+      <c r="N29" s="12" t="n">
         <v>34.896185</v>
       </c>
-      <c r="O29" s="13" t="n">
+      <c r="O29" s="12" t="n">
         <v>0.967683</v>
       </c>
-      <c r="P29" s="13" t="n">
+      <c r="P29" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" s="13" t="n">
+      <c r="Q29" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R29" s="13" t="n">
+      <c r="R29" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T29" s="13" t="n">
+      <c r="T29" s="12" t="n">
         <v>80</v>
       </c>
       <c r="U29" s="0" t="s">
@@ -5698,69 +5664,69 @@
       <c r="V29" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="W29" s="13" t="s">
+      <c r="W29" s="12" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+      <c r="A30" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="B30" s="13" t="n">
+      <c r="B30" s="12" t="n">
         <v>20250714</v>
       </c>
-      <c r="C30" s="13" t="n">
+      <c r="C30" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="D30" s="14" t="n">
+      <c r="D30" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E30" s="14" t="n">
+      <c r="E30" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F30" s="14" t="n">
+      <c r="F30" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="G30" s="15" t="n">
+      <c r="G30" s="14" t="n">
         <v>1E-006</v>
       </c>
-      <c r="H30" s="15" t="n">
+      <c r="H30" s="14" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J30" s="13" t="n">
+      <c r="J30" s="12" t="n">
         <v>68</v>
       </c>
-      <c r="K30" s="13" t="n">
+      <c r="K30" s="12" t="n">
         <v>0.016592</v>
       </c>
-      <c r="L30" s="13" t="n">
+      <c r="L30" s="12" t="n">
         <v>0.022028</v>
       </c>
-      <c r="M30" s="13" t="n">
+      <c r="M30" s="12" t="n">
         <v>0.0071175</v>
       </c>
-      <c r="N30" s="13" t="n">
+      <c r="N30" s="12" t="n">
         <v>33.40699</v>
       </c>
-      <c r="O30" s="13" t="n">
+      <c r="O30" s="12" t="n">
         <v>0.95994</v>
       </c>
-      <c r="P30" s="13" t="n">
+      <c r="P30" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q30" s="13" t="n">
+      <c r="Q30" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R30" s="13" t="n">
+      <c r="R30" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="S30" s="13" t="s">
+      <c r="S30" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T30" s="13" t="n">
+      <c r="T30" s="12" t="n">
         <v>73</v>
       </c>
       <c r="U30" s="0" t="s">
@@ -5769,36 +5735,36 @@
       <c r="V30" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="W30" s="13" t="s">
+      <c r="W30" s="12" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
+      <c r="A31" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="B31" s="13" t="n">
+      <c r="B31" s="12" t="n">
         <v>20250715</v>
       </c>
-      <c r="C31" s="13" t="n">
+      <c r="C31" s="12" t="n">
         <v>0.4</v>
       </c>
-      <c r="D31" s="14" t="n">
+      <c r="D31" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E31" s="14" t="n">
+      <c r="E31" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F31" s="14" t="n">
+      <c r="F31" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="G31" s="15" t="n">
+      <c r="G31" s="14" t="n">
         <v>1E-006</v>
       </c>
-      <c r="H31" s="15" t="n">
+      <c r="H31" s="14" t="n">
         <v>0.0001</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="12" t="s">
         <v>296</v>
       </c>
       <c r="J31" s="0" t="n">
@@ -5819,16 +5785,16 @@
       <c r="O31" s="0" t="n">
         <v>0.959881</v>
       </c>
-      <c r="P31" s="13" t="n">
+      <c r="P31" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="Q31" s="13" t="n">
+      <c r="Q31" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R31" s="13" t="n">
+      <c r="R31" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="S31" s="13" t="s">
+      <c r="S31" s="12" t="s">
         <v>292</v>
       </c>
       <c r="T31" s="0" t="n">
@@ -5840,7 +5806,7 @@
       <c r="V31" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="W31" s="13" t="s">
+      <c r="W31" s="12" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5863,11 +5829,11 @@
   </sheetPr>
   <dimension ref="A2:AD11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC11" activeCellId="0" sqref="AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.6"/>
@@ -6048,10 +6014,10 @@
       <c r="W3" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="X3" s="6" t="n">
+      <c r="X3" s="5" t="n">
         <v>2040</v>
       </c>
-      <c r="Y3" s="6" t="n">
+      <c r="Y3" s="5" t="n">
         <v>100</v>
       </c>
       <c r="Z3" s="0" t="n">
@@ -6074,29 +6040,27 @@
       <c r="B4" s="0" t="n">
         <v>20250814</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>1E-005</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="5" t="n">
         <v>1E-005</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
       <c r="L4" s="0" t="s">
         <v>335</v>
       </c>
@@ -6133,10 +6097,10 @@
       <c r="W4" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="X4" s="6" t="n">
+      <c r="X4" s="5" t="n">
         <v>2040</v>
       </c>
-      <c r="Y4" s="6" t="n">
+      <c r="Y4" s="5" t="n">
         <v>100</v>
       </c>
       <c r="Z4" s="0" t="n">
@@ -6162,29 +6126,27 @@
       <c r="B5" s="0" t="n">
         <v>20250815</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>1E-005</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="5" t="n">
         <v>1E-005</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
       <c r="L5" s="0" t="s">
         <v>335</v>
       </c>
@@ -6221,10 +6183,10 @@
       <c r="W5" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="X5" s="5" t="n">
         <v>2040</v>
       </c>
-      <c r="Y5" s="6" t="n">
+      <c r="Y5" s="5" t="n">
         <v>100</v>
       </c>
       <c r="Z5" s="0" t="n">
@@ -6247,29 +6209,27 @@
       <c r="B6" s="0" t="n">
         <v>20250817</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <v>1E-005</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="5" t="n">
         <v>1E-005</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
       <c r="L6" s="0" t="s">
         <v>335</v>
       </c>
@@ -6282,10 +6242,10 @@
       <c r="W6" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="X6" s="5" t="n">
         <v>2040</v>
       </c>
-      <c r="Y6" s="6" t="n">
+      <c r="Y6" s="5" t="n">
         <v>143</v>
       </c>
       <c r="Z6" s="0" t="n">
@@ -6294,7 +6254,7 @@
       <c r="AA6" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AC6" s="5" t="s">
         <v>347</v>
       </c>
     </row>
@@ -6305,29 +6265,27 @@
       <c r="B7" s="0" t="n">
         <v>20250819</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="5" t="n">
         <v>1E-005</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="5" t="n">
         <v>1E-005</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
       <c r="L7" s="0" t="s">
         <v>335</v>
       </c>
@@ -6364,10 +6322,10 @@
       <c r="W7" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="X7" s="6" t="n">
+      <c r="X7" s="5" t="n">
         <v>2040</v>
       </c>
-      <c r="Y7" s="6" t="n">
+      <c r="Y7" s="5" t="n">
         <v>176</v>
       </c>
       <c r="Z7" s="0" t="n">
@@ -6379,7 +6337,7 @@
       <c r="AB7" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AC7" s="5" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6390,29 +6348,27 @@
       <c r="B8" s="0" t="n">
         <v>20250820</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="5" t="n">
         <v>1E-005</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="5" t="n">
         <v>1E-005</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
       <c r="L8" s="0" t="s">
         <v>335</v>
       </c>
@@ -6464,7 +6420,7 @@
       <c r="AB8" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AC8" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6499,7 +6455,7 @@
       <c r="J9" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="15" t="s">
         <v>355</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -6654,13 +6610,19 @@
         <v>362</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>33</v>
       </c>
       <c r="Z11" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -6685,7 +6647,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.73"/>
@@ -6693,13 +6655,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,10 +6669,10 @@
         <v>158</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6718,10 +6680,10 @@
         <v>110</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,10 +6691,10 @@
         <v>225</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>342</v>
@@ -6760,7 +6722,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.97"/>
@@ -6871,10 +6833,10 @@
       <c r="F2" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="G2" s="18" t="n">
+      <c r="G2" s="16" t="n">
         <v>2E-007</v>
       </c>
-      <c r="H2" s="18" t="n">
+      <c r="H2" s="16" t="n">
         <v>6E-005</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -6896,39 +6858,39 @@
         <v>40</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1"/>
@@ -6936,8 +6898,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1"/>
@@ -6945,57 +6907,57 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="10"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="1"/>
@@ -7003,140 +6965,140 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7161,7 +7123,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.58"/>
@@ -7177,7 +7139,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>110</v>
@@ -7189,7 +7151,7 @@
         <v>225</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>227</v>
@@ -7210,18 +7172,18 @@
         <v>56</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>246</v>
@@ -7245,21 +7207,21 @@
         <v>0.9048</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>246</v>
@@ -7283,10 +7245,10 @@
         <v>0.914611</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7296,8 +7258,8 @@
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>383</v>
+      <c r="C4" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>246</v>
@@ -7305,26 +7267,26 @@
       <c r="E4" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>0.025839</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>0.027598</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="5" t="n">
         <v>0.008822</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="5" t="n">
         <v>31.467262</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="5" t="n">
         <v>0.942267</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,34 +7297,34 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="12" t="n">
         <v>0.017855</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="12" t="n">
         <v>0.023438</v>
       </c>
-      <c r="H5" s="13" t="n">
+      <c r="H5" s="12" t="n">
         <v>0.007206</v>
       </c>
-      <c r="I5" s="13" t="n">
+      <c r="I5" s="12" t="n">
         <v>32.833047</v>
       </c>
-      <c r="J5" s="13" t="n">
+      <c r="J5" s="12" t="n">
         <v>0.957528</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,34 +7335,34 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="12" t="n">
         <v>0.025466</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="12" t="n">
         <v>0.028383</v>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H6" s="12" t="n">
         <v>0.007618</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="12" t="n">
         <v>30.96068</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="12" t="n">
         <v>0.939194</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,34 +7373,34 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D7" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>296</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="12" t="n">
         <v>0.021066</v>
       </c>
-      <c r="G7" s="13" t="n">
+      <c r="G7" s="12" t="n">
         <v>0.024974</v>
       </c>
-      <c r="H7" s="13" t="n">
+      <c r="H7" s="12" t="n">
         <v>0.0081642</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="12" t="n">
         <v>32.27242</v>
       </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="12" t="n">
         <v>0.95064</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7449,34 +7411,34 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>296</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="12" t="n">
         <v>0.014722</v>
       </c>
-      <c r="G8" s="13" t="n">
+      <c r="G8" s="12" t="n">
         <v>0.020373</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="12" t="n">
         <v>0.006444</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="12" t="n">
         <v>34.08511</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="12" t="n">
         <v>0.963851</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -7501,7 +7463,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.52"/>
@@ -7524,10 +7486,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,10 +7497,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7546,10 +7508,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7557,10 +7519,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7568,10 +7530,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,10 +7541,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7590,10 +7552,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7601,10 +7563,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -7629,682 +7591,682 @@
       <selection pane="topLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="e">
-        <f aca="false">============================================================</f>
+        <f aca="false">===========================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="e">
-        <f aca="false">============================================================</f>
+        <f aca="false">===========================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="e">
-        <f aca="false">========================================================</f>
+        <f aca="false">=======================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -8329,7 +8291,7 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.46"/>
@@ -8594,1309 +8556,1309 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="e">
-        <f aca="false">======================================================================================</f>
+        <f aca="false">=====================================================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="e">
-        <f aca="false">======================================================================================</f>
+        <f aca="false">=====================================================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="e">
-        <f aca="false">======================================================================================</f>
+        <f aca="false">=====================================================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="e">
-        <f aca="false">======================================================================================</f>
+        <f aca="false">=====================================================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="e">
-        <f aca="false">========================================================</f>
+        <f aca="false">=======================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -9921,7 +9883,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.41"/>
@@ -9929,18 +9891,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="B2" s="19" t="n">
+        <v>789</v>
+      </c>
+      <c r="B2" s="17" t="n">
         <v>447818529825</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -9965,24 +9927,24 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="139.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -10007,24 +9969,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="185.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -10049,7 +10011,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.15"/>
@@ -10057,89 +10019,89 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -10164,24 +10126,24 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10189,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10197,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10205,7 +10167,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10213,7 +10175,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10221,43 +10183,43 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13" t="s">
-        <v>827</v>
+      <c r="B11" s="12" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="13" t="s">
-        <v>828</v>
+      <c r="B12" s="12" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="12" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -10282,51 +10244,51 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="138.96"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -10351,7 +10313,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.21"/>
@@ -10367,24 +10329,24 @@
         <v>166</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="240.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>842</v>
+        <v>840</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10392,7 +10354,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -10402,8 +10364,8 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>844</v>
+      <c r="B4" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -10414,7 +10376,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
@@ -10425,7 +10387,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
@@ -10436,13 +10398,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10450,7 +10412,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>4</v>
@@ -10461,7 +10423,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -10472,7 +10434,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>4</v>
@@ -10483,7 +10445,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -10494,7 +10456,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>5</v>
@@ -10505,7 +10467,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>5</v>
@@ -10533,24 +10495,24 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="176.95"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -10575,7 +10537,7 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.72"/>
@@ -10583,15 +10545,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -10617,7 +10579,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.2"/>
   </cols>
@@ -10652,17 +10614,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>93</v>
       </c>
@@ -10672,13 +10634,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -10704,7 +10666,7 @@
       <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.67"/>
@@ -10712,31 +10674,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>213</v>
@@ -10764,7 +10726,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -10943,7 +10905,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -11074,7 +11036,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -11205,7 +11167,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.21"/>
@@ -11282,7 +11244,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.51"/>
@@ -11367,7 +11329,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.7"/>
@@ -11412,7 +11374,7 @@
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -11426,7 +11388,7 @@
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D5" s="1" t="s">

--- a/医疗AI.xlsx
+++ b/医疗AI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MonAI相关" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,6 +38,7 @@
     <sheet name="prompts" sheetId="28" state="visible" r:id="rId29"/>
     <sheet name="Monai优点" sheetId="29" state="visible" r:id="rId30"/>
     <sheet name="ubuntu启动失败" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="数据问题" sheetId="31" state="visible" r:id="rId32"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="890">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -304,6 +305,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/jungeun122333/UVI-Net/blob/main/data_preprocess/lung_preprocess.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/zzg/workspace/pycharm/4DCBCT-NNet-Reconstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本地代码</t>
   </si>
   <si>
     <t xml:space="preserve">cd /home/zzg/workspace/pycharm/tutorials/3d_registration</t>
@@ -342,6 +349,12 @@
   </si>
   <si>
     <t xml:space="preserve">只能使用普通的dataset和普通的dataloader，使用threaddataloader时也会异常退出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">训练过程中死机的问题，有可能是机箱温度过高，我打开了两侧和上面的机箱板，加强散热。同时把硬盘的数据线插牢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以后估算工程量和工数，要考虑训练数据多少</t>
   </si>
   <si>
     <t xml:space="preserve">功能名</t>
@@ -1218,7 +1231,34 @@
     <t xml:space="preserve">FovS_180</t>
   </si>
   <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_180/20250823_190228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/gyobpyhe</t>
+  </si>
+  <si>
     <t xml:space="preserve">使用ThreadDataLoader时死机了，还是用回DataLoader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FovS_360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_360/20250825_081258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/rq2pwv70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上面的死机可能是训练时，脚碰到了硬盘导致读取错误</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_180/20250829_191308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/cff765x6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习率从0.0001到0.000001做一次性抛物线衰减，loss和ssim都变化的很缓慢，不推荐CosineAnnealingLR</t>
   </si>
   <si>
     <t xml:space="preserve">增强项</t>
@@ -2776,34 +2816,52 @@
 每5个epoch衰减为90%的策略衰减太慢，50个epoch后仍高达 1e-5 * 0.9^10 ≈ 3.5e-6，仍较高。</t>
   </si>
   <si>
-    <t xml:space="preserve">数据检查和数据预处理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据分析EDA</t>
+    <t xml:space="preserve">下载数据和数据检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据预处理和数据分析EDA的编码和执行</t>
   </si>
   <si>
     <t xml:space="preserve">构建模型</t>
   </si>
   <si>
-    <t xml:space="preserve">构建训练pipeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">训练多个模型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">并行</t>
+    <t xml:space="preserve">构建训练pipeline（loss function，metric，optimizer，lr schedule，wandb，tensorboard）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">训练FovL数据的模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">并行，训练模型同时，做下面的评估和测试代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">训练FovS_180数据的模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">训练FovS_360数据的模型</t>
   </si>
   <si>
     <t xml:space="preserve">构建评估pipeline</t>
   </si>
   <si>
-    <t xml:space="preserve">评估模型</t>
+    <t xml:space="preserve">评估FovL数据的模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">评估FovS_180数据的模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">评估FovS_360数据的模型</t>
   </si>
   <si>
     <t xml:space="preserve">构建测试pipeline</t>
   </si>
   <si>
-    <t xml:space="preserve">测试模型</t>
+    <t xml:space="preserve">测试FovL数据的模型，生成重建图像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试FovS_180数据的模型，生成重建图像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试FovS_360数据的模型，生成重建图像</t>
   </si>
   <si>
     <t xml:space="preserve">制作训练，评估，测试报告</t>
@@ -2880,6 +2938,12 @@
   </si>
   <si>
     <t xml:space="preserve">重启画面服务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图像数（应该384）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">缺少</t>
   </si>
 </sst>
 </file>
@@ -2988,7 +3052,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3050,6 +3114,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3605,35 +3673,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3666,23 +3734,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3794,70 +3862,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,7 +3948,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0.35093</v>
@@ -3904,13 +3972,13 @@
         <v>1</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,7 +4001,7 @@
         <v>0.5</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>1</v>
@@ -3942,13 +4010,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1.26325</v>
@@ -3995,13 +4063,13 @@
         <v>1</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4024,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>1</v>
@@ -4033,13 +4101,13 @@
         <v>1</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,7 +4132,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="n">
@@ -4092,17 +4160,17 @@
         <v>48</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,7 +4195,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P7" s="5" t="n">
         <v>0</v>
@@ -4139,19 +4207,19 @@
         <v>48</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>36</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,7 +4244,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0.03275</v>
@@ -4203,16 +4271,16 @@
         <v>48</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>120</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,7 +4305,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="n">
@@ -4265,16 +4333,16 @@
         <v>48</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T9" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,7 +4367,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="n">
@@ -4333,13 +4401,13 @@
         <v>40</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,7 +4432,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0.03817</v>
@@ -4391,16 +4459,16 @@
         <v>48</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4425,7 +4493,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -4455,19 +4523,19 @@
         <v>48</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,7 +4564,7 @@
         <v>2E-005</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>40</v>
@@ -4526,19 +4594,19 @@
         <v>48</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,7 +4635,7 @@
         <v>2E-005</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>40</v>
@@ -4597,16 +4665,16 @@
         <v>48</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,7 +4703,7 @@
         <v>6E-005</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>40</v>
@@ -4665,16 +4733,16 @@
         <v>48</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T15" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,7 +4771,7 @@
         <v>6E-005</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -4733,16 +4801,16 @@
         <v>48</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4771,7 +4839,7 @@
         <v>0.0001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -4801,19 +4869,19 @@
         <v>48</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>50</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +4910,7 @@
         <v>0.0001</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -4872,19 +4940,19 @@
         <v>48</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,7 +4981,7 @@
         <v>0.0001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -4943,19 +5011,19 @@
         <v>48</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4978,13 +5046,13 @@
         <v>0.3</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H20" s="11" t="n">
         <v>4E-005</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>70</v>
@@ -5014,19 +5082,19 @@
         <v>48</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5055,7 +5123,7 @@
         <v>0.0001</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J21" s="12" t="n">
         <v>96</v>
@@ -5085,19 +5153,19 @@
         <v>48</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T21" s="12" t="n">
         <v>100</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,7 +5194,7 @@
         <v>0.0001</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J22" s="12" t="n">
         <v>116</v>
@@ -5156,19 +5224,19 @@
         <v>48</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T22" s="12" t="n">
         <v>130</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,7 +5265,7 @@
         <v>0.0001</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J23" s="12" t="n">
         <v>37</v>
@@ -5227,19 +5295,19 @@
         <v>24</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T23" s="12" t="n">
         <v>40</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,7 +5336,7 @@
         <v>0.0001</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J24" s="12" t="n">
         <v>78</v>
@@ -5298,19 +5366,19 @@
         <v>8</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="T24" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5339,7 +5407,7 @@
         <v>0.0001</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J25" s="12" t="n">
         <v>78</v>
@@ -5369,19 +5437,19 @@
         <v>48</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="T25" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5410,7 +5478,7 @@
         <v>0.0001</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J26" s="12" t="n">
         <v>85</v>
@@ -5440,19 +5508,19 @@
         <v>8</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T26" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5481,7 +5549,7 @@
         <v>0.0001</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J27" s="12" t="n">
         <v>49</v>
@@ -5511,19 +5579,19 @@
         <v>4</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T27" s="12" t="n">
         <v>50</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,7 +5620,7 @@
         <v>0.0001</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J28" s="12" t="n">
         <v>93</v>
@@ -5582,19 +5650,19 @@
         <v>1</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T28" s="12" t="n">
         <v>100</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,7 +5691,7 @@
         <v>0.0001</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J29" s="12" t="n">
         <v>66</v>
@@ -5653,19 +5721,19 @@
         <v>2</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T29" s="12" t="n">
         <v>80</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,7 +5762,7 @@
         <v>0.0001</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J30" s="12" t="n">
         <v>68</v>
@@ -5724,19 +5792,19 @@
         <v>16</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T30" s="12" t="n">
         <v>73</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5765,7 +5833,7 @@
         <v>0.0001</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>117</v>
@@ -5795,19 +5863,19 @@
         <v>16</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>120</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5827,15 +5895,15 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AD11"/>
+  <dimension ref="A2:AD13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC11" activeCellId="0" sqref="AC11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.07"/>
@@ -5845,7 +5913,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="6.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.98"/>
@@ -5866,88 +5936,88 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,10 +6046,10 @@
         <v>0.0001</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>6</v>
@@ -6024,13 +6094,13 @@
         <v>50</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6059,10 +6129,10 @@
         <v>1E-005</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>7</v>
@@ -6107,19 +6177,19 @@
         <v>50</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
@@ -6145,10 +6215,10 @@
         <v>1E-005</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>9</v>
@@ -6193,16 +6263,16 @@
         <v>50</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
@@ -6228,10 +6298,10 @@
         <v>1E-005</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>0</v>
@@ -6252,10 +6322,10 @@
         <v>50</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6284,10 +6354,10 @@
         <v>1E-005</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>6</v>
@@ -6332,16 +6402,16 @@
         <v>7</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
@@ -6367,10 +6437,10 @@
         <v>1E-005</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>50</v>
@@ -6415,16 +6485,16 @@
         <v>50</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
@@ -6450,16 +6520,16 @@
         <v>0.0001</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>0</v>
@@ -6480,16 +6550,16 @@
         <v>50</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
@@ -6515,16 +6585,16 @@
         <v>0.0001</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>50</v>
@@ -6551,7 +6621,7 @@
         <v>0.997694</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="0" t="n">
         <v>0</v>
@@ -6569,16 +6639,16 @@
         <v>50</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
@@ -6604,25 +6674,215 @@
         <v>0.0001</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.025985</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.02839</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.012117</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>31.462033</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0.943707</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>0.966385</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0.992768</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>680</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z11" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="AA11" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>368</v>
+      </c>
       <c r="AC11" s="0" t="s">
-        <v>363</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>20250825</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.014886</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.023564</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.008641</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>33.295706</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0.968203</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>0.982129</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0.994774</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>680</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>20250829</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="K13" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>680</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -6655,49 +6915,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -6748,70 +7008,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6833,14 +7093,14 @@
       <c r="F2" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="G2" s="16" t="n">
+      <c r="G2" s="17" t="n">
         <v>2E-007</v>
       </c>
-      <c r="H2" s="16" t="n">
+      <c r="H2" s="17" t="n">
         <v>6E-005</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
@@ -6858,13 +7118,13 @@
         <v>40</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7139,40 +7399,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,10 +7443,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>48</v>
@@ -7207,10 +7467,10 @@
         <v>0.9048</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7221,10 +7481,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>48</v>
@@ -7245,10 +7505,10 @@
         <v>0.914611</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,10 +7519,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>48</v>
@@ -7283,10 +7543,10 @@
         <v>0.942267</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,10 +7557,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>48</v>
@@ -7321,10 +7581,10 @@
         <v>0.957528</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,10 +7595,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>48</v>
@@ -7359,10 +7619,10 @@
         <v>0.939194</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,10 +7633,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>24</v>
@@ -7397,10 +7657,10 @@
         <v>0.95064</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,10 +7671,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>8</v>
@@ -7435,10 +7695,10 @@
         <v>0.963851</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -7475,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
@@ -7486,10 +7746,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7497,10 +7757,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7508,10 +7768,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,10 +7779,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7530,10 +7790,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7541,10 +7801,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7552,10 +7812,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7563,10 +7823,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -7598,7 +7858,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7609,597 +7869,597 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8210,47 +8470,47 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8261,12 +8521,12 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -8288,7 +8548,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8474,9 +8734,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2"/>
@@ -8563,7 +8827,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8574,1217 +8838,1217 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9795,22 +10059,22 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9821,22 +10085,22 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9853,12 +10117,12 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -9891,18 +10155,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="B2" s="17" t="n">
+        <v>802</v>
+      </c>
+      <c r="B2" s="18" t="n">
         <v>447818529825</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -9934,17 +10198,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -9976,17 +10240,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -10019,89 +10283,89 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -10133,17 +10397,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10151,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10159,7 +10423,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10167,7 +10431,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10175,7 +10439,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10183,43 +10447,43 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="12" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -10251,44 +10515,44 @@
   <sheetData>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -10307,16 +10571,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="64.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="96.8"/>
   </cols>
@@ -10326,10 +10591,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10337,16 +10602,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>843</v>
+        <v>853</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10354,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -10365,7 +10630,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -10376,7 +10641,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
@@ -10387,90 +10652,162 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
       <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10502,17 +10839,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>857</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -10545,15 +10882,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -10573,75 +10910,85 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:B12"/>
+  <dimension ref="B1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="182.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -10674,34 +11021,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -10711,6 +11058,82 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;10&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"&amp;10&amp;Kffffff页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10738,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -10752,135 +11175,135 @@
         <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -10917,7 +11340,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -10931,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>28</v>
@@ -10942,10 +11365,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10953,10 +11376,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10964,10 +11387,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10975,10 +11398,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10986,10 +11409,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10997,10 +11420,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11008,10 +11431,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -11048,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -11062,10 +11485,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11073,10 +11496,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11084,10 +11507,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11095,10 +11518,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11106,10 +11529,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11117,10 +11540,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11128,10 +11551,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11139,10 +11562,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -11179,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11190,10 +11613,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11201,25 +11624,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -11252,7 +11675,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
@@ -11260,25 +11683,25 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>80</v>
@@ -11286,17 +11709,17 @@
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>28</v>
@@ -11304,7 +11727,7 @@
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -11339,29 +11762,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>56</v>
@@ -11369,35 +11792,35 @@
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -11406,12 +11829,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -11420,55 +11843,55 @@
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/医疗AI.xlsx
+++ b/医疗AI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="MonAI相关" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="897">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -1258,7 +1258,28 @@
     <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/cff765x6</t>
   </si>
   <si>
-    <t xml:space="preserve">学习率从0.0001到0.000001做一次性抛物线衰减，loss和ssim都变化的很缓慢，不推荐CosineAnnealingLR</t>
+    <t xml:space="preserve">学习率从0.0001到0.000001做一次性抛物线衰减，loss和ssim都变化的很缓慢，训练到32epoch停止了。不推荐CosineAnnealingLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReduceLROnPlateau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_180/20250830_165915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/0jtg7sly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用ReduceLROnPlateau，注意self.scheduler.step(self.last_val_loss)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_360/20250831_095902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/9lbmx76u?nw=nwuserguiju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用50个subject数据</t>
   </si>
   <si>
     <t xml:space="preserve">增强项</t>
@@ -5895,10 +5916,10 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AD13"/>
+  <dimension ref="A2:AD15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6826,7 +6847,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
@@ -6883,6 +6904,148 @@
       </c>
       <c r="AC13" s="0" t="s">
         <v>376</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>20250830</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="K14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.025373</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.028897</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.012183</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>31.243735</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>0.944285</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>0.966555</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>0.992633</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>680</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>20250831</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K15" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -6915,13 +7078,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,10 +7092,10 @@
         <v>162</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6940,10 +7103,10 @@
         <v>114</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,10 +7114,10 @@
         <v>229</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>346</v>
@@ -7118,13 +7281,13 @@
         <v>40</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7399,7 +7562,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>114</v>
@@ -7411,7 +7574,7 @@
         <v>229</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>231</v>
@@ -7432,7 +7595,7 @@
         <v>56</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7443,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>250</v>
@@ -7467,10 +7630,10 @@
         <v>0.9048</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7481,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>250</v>
@@ -7505,10 +7668,10 @@
         <v>0.914611</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>250</v>
@@ -7543,10 +7706,10 @@
         <v>0.942267</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7557,7 +7720,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>300</v>
@@ -7581,10 +7744,10 @@
         <v>0.957528</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7595,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>300</v>
@@ -7619,10 +7782,10 @@
         <v>0.939194</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7633,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>300</v>
@@ -7657,10 +7820,10 @@
         <v>0.95064</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7671,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>300</v>
@@ -7695,10 +7858,10 @@
         <v>0.963851</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -7746,10 +7909,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7757,10 +7920,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7768,10 +7931,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,10 +7942,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7790,10 +7953,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7801,10 +7964,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7812,10 +7975,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7823,10 +7986,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -7858,7 +8021,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7869,597 +8032,597 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8470,47 +8633,47 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8521,12 +8684,12 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -8827,7 +8990,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8838,1217 +9001,1217 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10059,22 +10222,22 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10085,22 +10248,22 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10117,12 +10280,12 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -10155,18 +10318,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="B2" s="18" t="n">
         <v>447818529825</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -10198,17 +10361,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -10240,17 +10403,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -10283,89 +10446,89 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -10397,17 +10560,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10415,7 +10578,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10423,7 +10586,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10431,7 +10594,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10439,7 +10602,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10447,43 +10610,43 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="12" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -10515,44 +10678,44 @@
   <sheetData>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -10594,7 +10757,7 @@
         <v>170</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10602,16 +10765,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10619,7 +10782,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -10630,7 +10793,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -10641,7 +10804,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
@@ -10652,7 +10815,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10</v>
@@ -10663,13 +10826,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10677,13 +10840,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10691,13 +10854,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10705,7 +10868,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>5</v>
@@ -10716,7 +10879,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -10727,7 +10890,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -10738,7 +10901,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -10749,7 +10912,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>5</v>
@@ -10760,7 +10923,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -10771,7 +10934,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -10782,7 +10945,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -10793,7 +10956,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -10804,7 +10967,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2</v>
@@ -10839,17 +11002,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -10882,15 +11045,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -10912,7 +11075,7 @@
   </sheetPr>
   <dimension ref="B1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -11021,31 +11184,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>217</v>
@@ -11087,10 +11250,10 @@
         <v>183</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/医疗AI.xlsx
+++ b/医疗AI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MonAI相关" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,9 @@
     <sheet name="prompts" sheetId="28" state="visible" r:id="rId29"/>
     <sheet name="Monai优点" sheetId="29" state="visible" r:id="rId30"/>
     <sheet name="ubuntu启动失败" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="数据问题" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="ジョブカンの登録情報" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="band" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="20250903_KickoffMTG議事録" sheetId="33" state="visible" r:id="rId34"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="922">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -355,6 +357,9 @@
   </si>
   <si>
     <t xml:space="preserve">以后估算工程量和工数，要考虑训练数据多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先完全是用论文的方法，做一次训练，指标作为baseline，然后再用我们的方法训练</t>
   </si>
   <si>
     <t xml:space="preserve">功能名</t>
@@ -1279,7 +1284,28 @@
     <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/9lbmx76u?nw=nwuserguiju</t>
   </si>
   <si>
-    <t xml:space="preserve">使用50个subject数据</t>
+    <t xml:space="preserve">使用50个subject数据,磁盘满了，中断了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_360/20250901_113202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/jmbxynm5?nw=nwuserguiju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovL/20250902_175223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/4iy882x6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_180/20250903_132722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/dkgu0puz?nw=nwuserguiju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只使用phase_00数据训练,以前是用全部数据phase_00-04,现在相当于数据缩小了1/5,训练快了</t>
   </si>
   <si>
     <t xml:space="preserve">增强项</t>
@@ -2928,6 +2954,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">sudo mount /dev/sda1 /</t>
     </r>
@@ -2938,6 +2965,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">media</t>
     </r>
@@ -2947,6 +2975,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/zzg/GJ_disk01</t>
     </r>
@@ -2961,10 +2990,98 @@
     <t xml:space="preserve">重启画面服务</t>
   </si>
   <si>
-    <t xml:space="preserve">图像数（应该384）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">缺少</t>
+    <t xml:space="preserve">ジョブカンURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://id.jobcan.jp/users/sign_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会社ＩＤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16593-33654-1238968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スタッフコード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期パスワード </t>
+  </si>
+  <si>
+    <t xml:space="preserve">atps136804811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打刻場所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0000136 TS事業本部→TS-3G→日立製作所：認証ｼｽﾃﾑ研究開発</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamazaky1201!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KickoffMTG議事録</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">再度プロジェクト紹介→他们会给我们今天的资料
+·根据论文做构筑N-net模型
+·使用数据50个人的Fovl、Fovs180、Fovs360的各自三个视角的数据。其中画质上讲，Fovl和Fovs360差不多，Fovs180的画质会差一些
+·只用phase00的数据（img，gt）
+•prior的数据也是要用的吧？
+•最后的评价结果，需要有画像的结果和评价指标的结果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">00是呼气，04是吸气，01-03是中间过程
+关于画像的结果，这里有点没太懂：他说他做了u-net的训练之后最后会和gt的数据做比较，但是我们这次gt是属于学习数据，这个怎么比呢？感觉他也是要我们把各个图列在一起看看最后一眼看去有没有和接近gt数据。这个可能我对这个数据的学习还是不太理解，回头麻烦周老师看看。
+关于评价指标，他们指定了4个。中途周老师问了有没有具体要达到的要求，他们也没有说明确的要求，尤其是Fovs180的数据，画质很低，所以没有一个指定的数值。他们就是很担心，N-net能不能把模糊的部分修复了。他们是期待可以修复的。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">关于schedule的问题，他们拿出来了上次我们的ppt。我说了这次数据比较大，比预计的时间多，我们调整了一下，过几天给他们发新的安排。口头上我说了一下大概的安排，比如9/30就要开始训练了。他提出这个时候我们能给一版能动起来的模型的代码，他们也同时拿去看看，如果发现什么问题也方便随时给我们反馈。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关于数据太大不好下载的问题，他说实在需要就考个盘给我们。但是他们要做各种申请，可能要比较花时间。我想我们的数据都下载完了，这个也就没用了，所以跟他说暂时不用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">那个佐川提到了对于数据的出入力有没有什么要求或者注意的地方，这个时候松井说那个他们有一些sample code要发给我们，就是他给您看的那个，应该是U-net的代码。他说可以做一下参考，然后再做开发会变得简单一些。然后至于出力的数据，他说就是我们再做标签的时候，要保持标签的一致。（就是00的数据就一直用00的这种？？）
+他说他们会把这个资料发给我们，大概这周吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接下来就是例会时间，基本上是周三的15点到16点。然后9月10日的那天是松井有事情，改成上午10点到11点。10月8日他也有事情，改成10月7日的15点到16点。这里说的都是东京时间。在每次例会之前会有一个跟atp的会议，这个回头周老师就不用管了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">后来又说了一些他们的项目。基本上松井这个部门是做sensor的，他说想LLM这种他们几乎不管的，一般都是出力各种sensor的东西，做这方面的研究。他们主要就是建立各种模型，然后对各个模型的效果进行比较。这个松井负责的组里一直做的就是这些。我也介绍了周老师做过那个口腔的图像数据和集装箱的，稍微说了一下。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图像中有小块长方形白色区域，说是噪音，需要怎么处理？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT数据中，画质最差的是FovS_180，FovL和FovS_360差不多</t>
   </si>
 </sst>
 </file>
@@ -2977,12 +3094,13 @@
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
     <numFmt numFmtId="167" formatCode="yy\年m\月d\日"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3001,6 +3119,13 @@
     </font>
     <font>
       <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -3073,7 +3198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3138,10 +3263,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3152,6 +3273,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3237,9 +3366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5918400</xdr:colOff>
+      <xdr:colOff>5917320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3252,8 +3381,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="810720" y="613800"/>
-          <a:ext cx="5918400" cy="2972520"/>
+          <a:off x="808920" y="613800"/>
+          <a:ext cx="5917320" cy="2971440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3279,7 +3408,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.17"/>
@@ -3686,7 +3815,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.56"/>
@@ -3694,35 +3823,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3747,7 +3876,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
@@ -3755,23 +3884,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3925,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
@@ -3807,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3986,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.97"/>
@@ -3883,70 +4012,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,7 +4098,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0.35093</v>
@@ -3993,13 +4122,13 @@
         <v>1</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,7 +4151,7 @@
         <v>0.5</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>1</v>
@@ -4031,13 +4160,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4060,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1.26325</v>
@@ -4084,13 +4213,13 @@
         <v>1</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>1</v>
@@ -4122,13 +4251,13 @@
         <v>1</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,7 +4282,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="n">
@@ -4181,17 +4310,17 @@
         <v>48</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,7 +4345,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P7" s="5" t="n">
         <v>0</v>
@@ -4228,19 +4357,19 @@
         <v>48</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>36</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,7 +4394,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0.03275</v>
@@ -4292,16 +4421,16 @@
         <v>48</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>120</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,7 +4455,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="n">
@@ -4354,16 +4483,16 @@
         <v>48</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T9" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,7 +4517,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="n">
@@ -4422,13 +4551,13 @@
         <v>40</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4453,7 +4582,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0.03817</v>
@@ -4480,16 +4609,16 @@
         <v>48</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,7 +4643,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -4544,19 +4673,19 @@
         <v>48</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,7 +4714,7 @@
         <v>2E-005</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>40</v>
@@ -4615,19 +4744,19 @@
         <v>48</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,7 +4785,7 @@
         <v>2E-005</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>40</v>
@@ -4686,16 +4815,16 @@
         <v>48</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +4853,7 @@
         <v>6E-005</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>40</v>
@@ -4754,16 +4883,16 @@
         <v>48</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T15" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,7 +4921,7 @@
         <v>6E-005</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -4822,16 +4951,16 @@
         <v>48</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4860,7 +4989,7 @@
         <v>0.0001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -4890,19 +5019,19 @@
         <v>48</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>50</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,7 +5060,7 @@
         <v>0.0001</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -4961,19 +5090,19 @@
         <v>48</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5002,7 +5131,7 @@
         <v>0.0001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -5032,19 +5161,19 @@
         <v>48</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,13 +5196,13 @@
         <v>0.3</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H20" s="11" t="n">
         <v>4E-005</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>70</v>
@@ -5103,19 +5232,19 @@
         <v>48</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,7 +5273,7 @@
         <v>0.0001</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J21" s="12" t="n">
         <v>96</v>
@@ -5174,19 +5303,19 @@
         <v>48</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T21" s="12" t="n">
         <v>100</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5215,7 +5344,7 @@
         <v>0.0001</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J22" s="12" t="n">
         <v>116</v>
@@ -5245,19 +5374,19 @@
         <v>48</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T22" s="12" t="n">
         <v>130</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5286,7 +5415,7 @@
         <v>0.0001</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J23" s="12" t="n">
         <v>37</v>
@@ -5316,19 +5445,19 @@
         <v>24</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T23" s="12" t="n">
         <v>40</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,7 +5486,7 @@
         <v>0.0001</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J24" s="12" t="n">
         <v>78</v>
@@ -5387,19 +5516,19 @@
         <v>8</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T24" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5428,7 +5557,7 @@
         <v>0.0001</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J25" s="12" t="n">
         <v>78</v>
@@ -5458,19 +5587,19 @@
         <v>48</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T25" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,7 +5628,7 @@
         <v>0.0001</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J26" s="12" t="n">
         <v>85</v>
@@ -5529,19 +5658,19 @@
         <v>8</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T26" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5570,7 +5699,7 @@
         <v>0.0001</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J27" s="12" t="n">
         <v>49</v>
@@ -5600,19 +5729,19 @@
         <v>4</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T27" s="12" t="n">
         <v>50</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,7 +5770,7 @@
         <v>0.0001</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J28" s="12" t="n">
         <v>93</v>
@@ -5671,19 +5800,19 @@
         <v>1</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T28" s="12" t="n">
         <v>100</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +5841,7 @@
         <v>0.0001</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J29" s="12" t="n">
         <v>66</v>
@@ -5742,19 +5871,19 @@
         <v>2</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T29" s="12" t="n">
         <v>80</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5783,7 +5912,7 @@
         <v>0.0001</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J30" s="12" t="n">
         <v>68</v>
@@ -5813,19 +5942,19 @@
         <v>16</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T30" s="12" t="n">
         <v>73</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,7 +5983,7 @@
         <v>0.0001</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>117</v>
@@ -5884,19 +6013,19 @@
         <v>16</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>120</v>
       </c>
       <c r="U31" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="W31" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="V31" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="W31" s="12" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5916,15 +6045,15 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AD15"/>
+  <dimension ref="A2:AD18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y18" activeCellId="0" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.07"/>
@@ -5932,7 +6061,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.68"/>
@@ -5957,88 +6086,88 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,10 +6196,10 @@
         <v>0.0001</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>6</v>
@@ -6115,13 +6244,13 @@
         <v>50</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6150,10 +6279,10 @@
         <v>1E-005</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>7</v>
@@ -6198,16 +6327,16 @@
         <v>50</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6236,10 +6365,10 @@
         <v>1E-005</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>9</v>
@@ -6284,13 +6413,13 @@
         <v>50</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6319,10 +6448,10 @@
         <v>1E-005</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>0</v>
@@ -6343,10 +6472,10 @@
         <v>50</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6375,10 +6504,10 @@
         <v>1E-005</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>6</v>
@@ -6423,13 +6552,13 @@
         <v>7</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,10 +6587,10 @@
         <v>1E-005</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>50</v>
@@ -6506,13 +6635,13 @@
         <v>50</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,16 +6670,16 @@
         <v>0.0001</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>0</v>
@@ -6571,13 +6700,13 @@
         <v>50</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6606,16 +6735,16 @@
         <v>0.0001</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>50</v>
@@ -6660,13 +6789,13 @@
         <v>50</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6695,16 +6824,16 @@
         <v>0.0001</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>50</v>
@@ -6749,13 +6878,13 @@
         <v>50</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,16 +6913,16 @@
         <v>0.0001</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>100</v>
@@ -6838,13 +6967,13 @@
         <v>100</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6867,16 +6996,16 @@
         <v>0.3</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="K13" s="16" t="n">
+        <v>367</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="16" t="s">
-        <v>334</v>
+      <c r="L13" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>1</v>
@@ -6897,13 +7026,13 @@
         <v>50</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,16 +7058,16 @@
         <v>0.0001</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="K14" s="16" t="n">
+        <v>367</v>
+      </c>
+      <c r="K14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>334</v>
+      <c r="L14" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>31</v>
@@ -6983,13 +7112,13 @@
         <v>31</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7015,16 +7144,16 @@
         <v>0.0001</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="K15" s="16" t="n">
+        <v>371</v>
+      </c>
+      <c r="K15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="16" t="s">
-        <v>334</v>
+      <c r="L15" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>1</v>
@@ -7035,17 +7164,203 @@
       <c r="W15" s="0" t="n">
         <v>48</v>
       </c>
+      <c r="X15" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>90</v>
+      </c>
       <c r="Z15" s="0" t="n">
         <v>50</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>20250901</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>20250902</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>20250903</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -7070,7 +7385,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.73"/>
@@ -7078,49 +7393,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7145,7 +7460,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.97"/>
@@ -7171,70 +7486,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7256,14 +7571,14 @@
       <c r="F2" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="G2" s="17" t="n">
+      <c r="G2" s="16" t="n">
         <v>2E-007</v>
       </c>
-      <c r="H2" s="17" t="n">
+      <c r="H2" s="16" t="n">
         <v>6E-005</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
@@ -7281,13 +7596,13 @@
         <v>40</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7546,7 +7861,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.58"/>
@@ -7562,40 +7877,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7606,10 +7921,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>48</v>
@@ -7630,10 +7945,10 @@
         <v>0.9048</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7644,10 +7959,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>48</v>
@@ -7668,10 +7983,10 @@
         <v>0.914611</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7682,10 +7997,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>48</v>
@@ -7706,10 +8021,10 @@
         <v>0.942267</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7720,10 +8035,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>48</v>
@@ -7744,10 +8059,10 @@
         <v>0.957528</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7758,10 +8073,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>48</v>
@@ -7782,10 +8097,10 @@
         <v>0.939194</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7796,10 +8111,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>24</v>
@@ -7820,10 +8135,10 @@
         <v>0.95064</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,10 +8149,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>8</v>
@@ -7858,10 +8173,10 @@
         <v>0.963851</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -7886,7 +8201,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.52"/>
@@ -7898,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
@@ -7909,10 +8224,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7920,10 +8235,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7931,10 +8246,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7942,10 +8257,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7953,10 +8268,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7964,10 +8279,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7975,10 +8290,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7986,10 +8301,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -8014,682 +8329,682 @@
       <selection pane="topLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="e">
-        <f aca="false">===========================================================</f>
+        <f aca="false">========================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="e">
-        <f aca="false">===========================================================</f>
+        <f aca="false">========================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="e">
-        <f aca="false">=======================================================</f>
+        <f aca="false">====================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -8714,7 +9029,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.46"/>
@@ -8983,1309 +9298,1309 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="e">
-        <f aca="false">=====================================================================================</f>
+        <f aca="false">==================================================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="e">
-        <f aca="false">=====================================================================================</f>
+        <f aca="false">==================================================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="e">
-        <f aca="false">=====================================================================================</f>
+        <f aca="false">==================================================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="e">
-        <f aca="false">=====================================================================================</f>
+        <f aca="false">==================================================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="e">
-        <f aca="false">=======================================================</f>
+        <f aca="false">====================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -10310,7 +10625,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.41"/>
@@ -10318,18 +10633,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="B2" s="18" t="n">
+        <v>817</v>
+      </c>
+      <c r="B2" s="17" t="n">
         <v>447818529825</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -10354,24 +10669,24 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="139.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -10396,24 +10711,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="185.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -10435,10 +10750,10 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.15"/>
@@ -10446,89 +10761,89 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -10553,24 +10868,24 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10578,7 +10893,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10586,7 +10901,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10594,7 +10909,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10602,7 +10917,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10610,43 +10925,43 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="12" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -10671,51 +10986,51 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="138.96"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -10737,10 +11052,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.13"/>
@@ -10754,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10765,16 +11080,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>863</v>
+        <v>868</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10782,7 +11097,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -10793,7 +11108,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -10804,7 +11119,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
@@ -10815,7 +11130,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10</v>
@@ -10826,13 +11141,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10840,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10854,13 +11169,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10868,7 +11183,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>5</v>
@@ -10879,7 +11194,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -10890,7 +11205,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -10901,7 +11216,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -10912,7 +11227,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>5</v>
@@ -10923,7 +11238,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -10934,7 +11249,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -10945,7 +11260,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -10956,7 +11271,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -10967,7 +11282,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2</v>
@@ -10995,24 +11310,24 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="176.95"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -11037,7 +11352,7 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.72"/>
@@ -11045,15 +11360,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -11073,85 +11388,91 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:B14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="182.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="182.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="0" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="0" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="0" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="0" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="0" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="0" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="0" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="0" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="0" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="0" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -11176,7 +11497,7 @@
       <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.67"/>
@@ -11184,34 +11505,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -11230,70 +11551,199 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.39"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>895</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>804811</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>911</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.04"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>912</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="95.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.81"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
@@ -11312,7 +11762,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -11324,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -11338,135 +11788,135 @@
         <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -11491,7 +11941,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -11503,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -11517,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>28</v>
@@ -11528,10 +11978,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11539,10 +11989,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11550,10 +12000,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11561,10 +12011,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11572,10 +12022,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11583,10 +12033,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11594,10 +12044,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -11622,7 +12072,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -11634,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -11648,10 +12098,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11659,10 +12109,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11670,10 +12120,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11681,10 +12131,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11692,10 +12142,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11703,10 +12153,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11714,10 +12164,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11725,10 +12175,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -11753,7 +12203,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.21"/>
@@ -11765,10 +12215,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11776,10 +12226,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11787,25 +12237,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -11830,7 +12280,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.51"/>
@@ -11838,7 +12288,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
@@ -11846,25 +12296,25 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>80</v>
@@ -11872,17 +12322,17 @@
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>28</v>
@@ -11890,7 +12340,7 @@
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -11915,7 +12365,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.7"/>
@@ -11925,29 +12375,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>56</v>
@@ -11955,35 +12405,35 @@
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -11992,12 +12442,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -12006,55 +12456,55 @@
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/医疗AI.xlsx
+++ b/医疗AI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="MonAI相关" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,6 +41,7 @@
     <sheet name="ジョブカンの登録情報" sheetId="31" state="visible" r:id="rId32"/>
     <sheet name="band" sheetId="32" state="visible" r:id="rId33"/>
     <sheet name="20250903_KickoffMTG議事録" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="图像前处理时做剪裁" sheetId="34" state="visible" r:id="rId35"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="941">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -313,6 +314,9 @@
   </si>
   <si>
     <t xml:space="preserve">本地代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加上earlystop</t>
   </si>
   <si>
     <t xml:space="preserve">cd /home/zzg/workspace/pycharm/tutorials/3d_registration</t>
@@ -360,6 +364,12 @@
   </si>
   <si>
     <t xml:space="preserve">先完全是用论文的方法，做一次训练，指标作为baseline，然后再用我们的方法训练</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infer输出一定要.img文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fov等一样训两个模型，一个带min，max，clip，一个不带，包含所有值的，所以一共3×2=6个模型</t>
   </si>
   <si>
     <t xml:space="preserve">功能名</t>
@@ -1306,6 +1316,42 @@
   </si>
   <si>
     <t xml:space="preserve">只使用phase_00数据训练,以前是用全部数据phase_00-04,现在相当于数据缩小了1/5,训练快了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_360/20250904_104803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/orz8hvqe?nw=nwuserguiju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只使用phase_00数据训练</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovL/20250905_170438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/djd3u5ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_180/20250906_180125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/qo7k4fnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovL/20250908_190521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/qwhdcekp?nw=nwuserguiju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以前使用ScaleIntensityRanged（a_min=-1000,a_max=400），现在改用ScaleIntensityd来做数据预处理，也就是不做截断，测试效果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_180/20250912_200816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/fq66gsr2</t>
   </si>
   <si>
     <t xml:space="preserve">增强项</t>
@@ -3083,6 +3129,24 @@
   <si>
     <t xml:space="preserve">CT数据中，画质最差的是FovS_180，FovL和FovS_360差不多</t>
   </si>
+  <si>
+    <t xml:space="preserve">中文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">统一数值尺度：将 HU 映射到 0,1使输入与标签处于相同、受控的数值范围，便于网络权重与梯度稳定更新。
+减少极端值干扰：裁剪去除金属伪影或测量异常导致的极值，降低这些异常点对像素级损失（L1/L2）和判别器判断的负面影响。
+加快收敛与提升训练稳定性：小范围的输入分布能让优化器和正则化（BN/IN）更快收敛，减少梯度震荡。
+任务对齐：对去噪任务而言，保留目标窗宽内的解剖/软组织信息更重要，裁剪后模型专注学习噪声与窗内结构的关系。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数値スケールの統一：HU を 0,1 に正規化することで、入力と教師（ラベル）が同一スケールになり、重みや勾配の安定した更新が可能になる。
+異常値の影響低減：金属アーチファクトや測定誤差による極端値をウィンドウで切り捨てることで、画素単位の損失（L1/L2）や識別器への悪影響を抑えられる。
+収束の高速化と学習安定性の向上：小さい固定レンジの入力分布は最適化を安定させ、学習の収束を早める傾向がある。
+タスクに適した情報抽出：ノイズ除去ではウィンドウ内の軟部組織や解剖学的構造の復元が重要であり、ウィンドウ処理はモデルがその情報に集中できるようにする。</t>
+  </si>
 </sst>
 </file>
 
@@ -3118,18 +3182,18 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3263,6 +3327,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3275,11 +3343,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3823,35 +3887,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3884,23 +3948,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4012,70 +4076,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4098,7 +4162,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0.35093</v>
@@ -4122,13 +4186,13 @@
         <v>1</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,7 +4215,7 @@
         <v>0.5</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>1</v>
@@ -4160,13 +4224,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1.26325</v>
@@ -4213,13 +4277,13 @@
         <v>1</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>1</v>
@@ -4251,13 +4315,13 @@
         <v>1</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,7 +4346,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="n">
@@ -4310,17 +4374,17 @@
         <v>48</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,7 +4409,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P7" s="5" t="n">
         <v>0</v>
@@ -4357,19 +4421,19 @@
         <v>48</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>36</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4394,7 +4458,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0.03275</v>
@@ -4421,16 +4485,16 @@
         <v>48</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>120</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4455,7 +4519,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="n">
@@ -4483,16 +4547,16 @@
         <v>48</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T9" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,7 +4581,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="n">
@@ -4551,13 +4615,13 @@
         <v>40</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4582,7 +4646,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0.03817</v>
@@ -4609,16 +4673,16 @@
         <v>48</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4643,7 +4707,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -4673,19 +4737,19 @@
         <v>48</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,7 +4778,7 @@
         <v>2E-005</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>40</v>
@@ -4744,19 +4808,19 @@
         <v>48</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,7 +4849,7 @@
         <v>2E-005</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>40</v>
@@ -4815,16 +4879,16 @@
         <v>48</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,7 +4917,7 @@
         <v>6E-005</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>40</v>
@@ -4883,16 +4947,16 @@
         <v>48</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T15" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4921,7 +4985,7 @@
         <v>6E-005</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -4951,16 +5015,16 @@
         <v>48</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4989,7 +5053,7 @@
         <v>0.0001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -5019,19 +5083,19 @@
         <v>48</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>50</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5060,7 +5124,7 @@
         <v>0.0001</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -5090,19 +5154,19 @@
         <v>48</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,7 +5195,7 @@
         <v>0.0001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -5161,19 +5225,19 @@
         <v>48</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5196,13 +5260,13 @@
         <v>0.3</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H20" s="11" t="n">
         <v>4E-005</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>70</v>
@@ -5232,19 +5296,19 @@
         <v>48</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,7 +5337,7 @@
         <v>0.0001</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J21" s="12" t="n">
         <v>96</v>
@@ -5303,19 +5367,19 @@
         <v>48</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T21" s="12" t="n">
         <v>100</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,7 +5408,7 @@
         <v>0.0001</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J22" s="12" t="n">
         <v>116</v>
@@ -5374,19 +5438,19 @@
         <v>48</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T22" s="12" t="n">
         <v>130</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,7 +5479,7 @@
         <v>0.0001</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J23" s="12" t="n">
         <v>37</v>
@@ -5445,19 +5509,19 @@
         <v>24</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T23" s="12" t="n">
         <v>40</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5486,7 +5550,7 @@
         <v>0.0001</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J24" s="12" t="n">
         <v>78</v>
@@ -5516,19 +5580,19 @@
         <v>8</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="T24" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,7 +5621,7 @@
         <v>0.0001</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J25" s="12" t="n">
         <v>78</v>
@@ -5587,19 +5651,19 @@
         <v>48</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="T25" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,7 +5692,7 @@
         <v>0.0001</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J26" s="12" t="n">
         <v>85</v>
@@ -5658,19 +5722,19 @@
         <v>8</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T26" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,7 +5763,7 @@
         <v>0.0001</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J27" s="12" t="n">
         <v>49</v>
@@ -5729,19 +5793,19 @@
         <v>4</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T27" s="12" t="n">
         <v>50</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5770,7 +5834,7 @@
         <v>0.0001</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J28" s="12" t="n">
         <v>93</v>
@@ -5800,19 +5864,19 @@
         <v>1</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T28" s="12" t="n">
         <v>100</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5841,7 +5905,7 @@
         <v>0.0001</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J29" s="12" t="n">
         <v>66</v>
@@ -5871,19 +5935,19 @@
         <v>2</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T29" s="12" t="n">
         <v>80</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5912,7 +5976,7 @@
         <v>0.0001</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J30" s="12" t="n">
         <v>68</v>
@@ -5942,19 +6006,19 @@
         <v>16</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T30" s="12" t="n">
         <v>73</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5983,7 +6047,7 @@
         <v>0.0001</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>117</v>
@@ -6013,19 +6077,19 @@
         <v>16</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>120</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6045,10 +6109,10 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AD18"/>
+  <dimension ref="A2:AD23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y18" activeCellId="0" sqref="Y18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6086,88 +6150,88 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6196,10 +6260,10 @@
         <v>0.0001</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>6</v>
@@ -6244,13 +6308,13 @@
         <v>50</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,10 +6343,10 @@
         <v>1E-005</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>7</v>
@@ -6327,16 +6391,16 @@
         <v>50</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,10 +6429,10 @@
         <v>1E-005</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>9</v>
@@ -6413,13 +6477,13 @@
         <v>50</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6448,10 +6512,10 @@
         <v>1E-005</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>0</v>
@@ -6472,10 +6536,10 @@
         <v>50</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,10 +6568,10 @@
         <v>1E-005</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>6</v>
@@ -6552,13 +6616,13 @@
         <v>7</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,10 +6651,10 @@
         <v>1E-005</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>50</v>
@@ -6635,13 +6699,13 @@
         <v>50</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6670,16 +6734,16 @@
         <v>0.0001</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>0</v>
@@ -6700,13 +6764,13 @@
         <v>50</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6735,16 +6799,16 @@
         <v>0.0001</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>50</v>
@@ -6789,13 +6853,13 @@
         <v>50</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6824,16 +6888,16 @@
         <v>0.0001</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>50</v>
@@ -6878,13 +6942,13 @@
         <v>50</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6913,16 +6977,16 @@
         <v>0.0001</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>100</v>
@@ -6967,13 +7031,13 @@
         <v>100</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6996,16 +7060,16 @@
         <v>0.3</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>1</v>
@@ -7026,13 +7090,13 @@
         <v>50</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7058,16 +7122,16 @@
         <v>0.0001</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>31</v>
@@ -7112,13 +7176,13 @@
         <v>31</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7144,16 +7208,16 @@
         <v>0.0001</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>1</v>
@@ -7174,13 +7238,13 @@
         <v>50</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7206,16 +7270,16 @@
         <v>0.0001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>1</v>
@@ -7236,10 +7300,10 @@
         <v>50</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,16 +7329,16 @@
         <v>0.0001</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>1</v>
@@ -7295,10 +7359,10 @@
         <v>50</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7324,16 +7388,40 @@
         <v>0.0001</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.023571</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.026387</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.011479</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>31.808074</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>0.948356</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>0.97225</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0.994124</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>1</v>
@@ -7354,13 +7442,419 @@
         <v>50</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="AC18" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>20250904</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.014671</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.021642</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.007978</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>33.591981</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>0.96952</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>0.984951</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0.995895</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC19" s="16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>20250905</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.01922</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.020504</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.007089</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>34.057103</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>0.955341</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>0.989531</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>0.997995</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC20" s="16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>20250906</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.019664</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.023168</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.009943</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>33.052063</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>0.955751</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>0.976986</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>0.995263</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC21" s="16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>20250908</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.011154</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.013399</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0.005246</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>37.571593</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>0.976987</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>0.993194</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>0.998804</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>20250912</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -7393,49 +7887,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -7486,70 +7980,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,14 +8065,14 @@
       <c r="F2" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="G2" s="16" t="n">
+      <c r="G2" s="17" t="n">
         <v>2E-007</v>
       </c>
-      <c r="H2" s="16" t="n">
+      <c r="H2" s="17" t="n">
         <v>6E-005</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
@@ -7596,13 +8090,13 @@
         <v>40</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7877,40 +8371,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7921,10 +8415,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>48</v>
@@ -7945,10 +8439,10 @@
         <v>0.9048</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7959,10 +8453,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>48</v>
@@ -7983,10 +8477,10 @@
         <v>0.914611</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7997,10 +8491,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>48</v>
@@ -8021,10 +8515,10 @@
         <v>0.942267</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8035,10 +8529,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>48</v>
@@ -8059,10 +8553,10 @@
         <v>0.957528</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8073,10 +8567,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>48</v>
@@ -8097,10 +8591,10 @@
         <v>0.939194</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8111,10 +8605,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>24</v>
@@ -8135,10 +8629,10 @@
         <v>0.95064</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8149,10 +8643,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>8</v>
@@ -8173,10 +8667,10 @@
         <v>0.963851</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -8213,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
@@ -8224,10 +8718,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8235,10 +8729,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8246,10 +8740,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8257,10 +8751,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8268,10 +8762,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8279,10 +8773,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8290,10 +8784,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8301,10 +8795,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -8336,7 +8830,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8347,597 +8841,597 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8948,47 +9442,47 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8999,12 +9493,12 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -9026,7 +9520,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9212,7 +9706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
         <v>85</v>
       </c>
@@ -9220,8 +9714,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2"/>
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9305,7 +9801,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9316,1217 +9812,1217 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10537,22 +11033,22 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10563,22 +11059,22 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10595,12 +11091,12 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -10633,18 +11129,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="B2" s="17" t="n">
+        <v>832</v>
+      </c>
+      <c r="B2" s="18" t="n">
         <v>447818529825</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -10676,17 +11172,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -10718,17 +11214,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -10761,89 +11257,89 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -10875,17 +11371,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10893,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10901,7 +11397,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10909,7 +11405,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10917,7 +11413,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10925,43 +11421,43 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="12" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -10993,44 +11489,44 @@
   <sheetData>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -11069,10 +11565,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11080,16 +11576,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>871</v>
+        <v>883</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11097,7 +11593,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -11108,7 +11604,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -11119,7 +11615,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
@@ -11130,7 +11626,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10</v>
@@ -11141,13 +11637,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11155,13 +11651,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11169,13 +11665,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11183,7 +11679,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>5</v>
@@ -11194,7 +11690,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -11205,7 +11701,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -11216,7 +11712,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -11227,7 +11723,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>5</v>
@@ -11238,7 +11734,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>885</v>
+        <v>900</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -11249,7 +11745,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -11260,7 +11756,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -11271,7 +11767,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -11282,7 +11778,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2</v>
@@ -11317,17 +11813,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
@@ -11360,15 +11856,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -11388,10 +11884,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11402,77 +11898,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -11505,34 +12011,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>900</v>
+        <v>915</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>901</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -11565,23 +12071,23 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>903</v>
+        <v>918</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>904</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>804811</v>
@@ -11589,18 +12095,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>908</v>
+        <v>923</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>909</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>911</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -11633,10 +12139,10 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>912</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -11672,8 +12178,8 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>913</v>
+      <c r="B1" s="16" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11681,23 +12187,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>914</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>915</v>
+      <c r="B3" s="16" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>916</v>
+      <c r="B4" s="16" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11705,23 +12211,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>917</v>
+        <v>932</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>918</v>
+      <c r="B6" s="16" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>919</v>
+      <c r="B7" s="16" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11729,7 +12235,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>920</v>
+        <v>935</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11737,7 +12243,51 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>921</v>
+        <v>936</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="124.31"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -11774,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -11788,135 +12338,135 @@
         <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -11953,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -11967,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>28</v>
@@ -11978,10 +12528,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11989,10 +12539,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12000,10 +12550,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12011,10 +12561,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12022,10 +12572,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12033,10 +12583,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12044,10 +12594,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -12084,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -12098,10 +12648,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12109,10 +12659,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12120,10 +12670,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12131,10 +12681,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12142,10 +12692,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12153,10 +12703,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12164,10 +12714,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12175,10 +12725,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -12215,10 +12765,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12226,10 +12776,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12237,25 +12787,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -12288,7 +12838,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
@@ -12296,25 +12846,25 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>80</v>
@@ -12322,17 +12872,17 @@
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>28</v>
@@ -12340,7 +12890,7 @@
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -12375,29 +12925,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>56</v>
@@ -12405,35 +12955,35 @@
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -12442,12 +12992,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -12456,55 +13006,55 @@
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/医疗AI.xlsx
+++ b/医疗AI.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="951">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t xml:space="preserve">加上earlystop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/zzg/商业项目/清华/CBCT4D_Hitachi/4DCBCT-NNet-release-20250926/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">放置release代码（20250926日）</t>
   </si>
   <si>
     <t xml:space="preserve">cd /home/zzg/workspace/pycharm/tutorials/3d_registration</t>
@@ -1352,6 +1358,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/fq66gsr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_180/20250913_182311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/u21zu1b3?nw=nwuserguiju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以前使用ScaleIntensityd（minv=0.0,maxv=1.0）也就是每张图像放缩到0-1，现在改用和松井一致：x.astype(np.float32) - 2000.0) / 3000.0来做数据预处理，显式的全局线性变换（固定偏移 + 固定缩放），值域范围在[-1，0],这样做逆变换也容易</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovS_360/20250919_185208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/bzhnj6lq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/zzg/商业项目/清华/CBCT4D_Hitachi/4DCBCT-NNet-release-20250926/experiments/Nnet/FovL/20250920_192912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/16bfmo85</t>
   </si>
   <si>
     <t xml:space="preserve">增强项</t>
@@ -3887,35 +3917,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3948,23 +3978,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4000,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4024,7 +4054,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4076,70 +4106,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,7 +4192,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0.35093</v>
@@ -4186,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,7 +4245,7 @@
         <v>0.5</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>1</v>
@@ -4224,13 +4254,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1.26325</v>
@@ -4277,13 +4307,13 @@
         <v>1</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>1</v>
@@ -4315,13 +4345,13 @@
         <v>1</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,7 +4376,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="n">
@@ -4374,17 +4404,17 @@
         <v>48</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,7 +4439,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P7" s="5" t="n">
         <v>0</v>
@@ -4421,19 +4451,19 @@
         <v>48</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>36</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4458,7 +4488,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0.03275</v>
@@ -4485,16 +4515,16 @@
         <v>48</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>120</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,7 +4549,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="n">
@@ -4547,16 +4577,16 @@
         <v>48</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T9" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,7 +4611,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="n">
@@ -4615,13 +4645,13 @@
         <v>40</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,7 +4676,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0.03817</v>
@@ -4673,16 +4703,16 @@
         <v>48</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,7 +4737,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -4737,19 +4767,19 @@
         <v>48</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,7 +4808,7 @@
         <v>2E-005</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>40</v>
@@ -4808,19 +4838,19 @@
         <v>48</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4849,7 +4879,7 @@
         <v>2E-005</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>40</v>
@@ -4879,16 +4909,16 @@
         <v>48</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,7 +4947,7 @@
         <v>6E-005</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>40</v>
@@ -4947,16 +4977,16 @@
         <v>48</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T15" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,7 +5015,7 @@
         <v>6E-005</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -5015,16 +5045,16 @@
         <v>48</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,7 +5083,7 @@
         <v>0.0001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -5083,19 +5113,19 @@
         <v>48</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>50</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5124,7 +5154,7 @@
         <v>0.0001</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -5154,19 +5184,19 @@
         <v>48</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,7 +5225,7 @@
         <v>0.0001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -5225,19 +5255,19 @@
         <v>48</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,13 +5290,13 @@
         <v>0.3</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H20" s="11" t="n">
         <v>4E-005</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>70</v>
@@ -5296,19 +5326,19 @@
         <v>48</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5337,7 +5367,7 @@
         <v>0.0001</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J21" s="12" t="n">
         <v>96</v>
@@ -5367,19 +5397,19 @@
         <v>48</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T21" s="12" t="n">
         <v>100</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,7 +5438,7 @@
         <v>0.0001</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J22" s="12" t="n">
         <v>116</v>
@@ -5438,19 +5468,19 @@
         <v>48</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T22" s="12" t="n">
         <v>130</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,7 +5509,7 @@
         <v>0.0001</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J23" s="12" t="n">
         <v>37</v>
@@ -5509,19 +5539,19 @@
         <v>24</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T23" s="12" t="n">
         <v>40</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5550,7 +5580,7 @@
         <v>0.0001</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J24" s="12" t="n">
         <v>78</v>
@@ -5580,19 +5610,19 @@
         <v>8</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="T24" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5621,7 +5651,7 @@
         <v>0.0001</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J25" s="12" t="n">
         <v>78</v>
@@ -5651,19 +5681,19 @@
         <v>48</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="T25" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5692,7 +5722,7 @@
         <v>0.0001</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J26" s="12" t="n">
         <v>85</v>
@@ -5722,19 +5752,19 @@
         <v>8</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T26" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,7 +5793,7 @@
         <v>0.0001</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J27" s="12" t="n">
         <v>49</v>
@@ -5793,19 +5823,19 @@
         <v>4</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T27" s="12" t="n">
         <v>50</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5834,7 +5864,7 @@
         <v>0.0001</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J28" s="12" t="n">
         <v>93</v>
@@ -5864,19 +5894,19 @@
         <v>1</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T28" s="12" t="n">
         <v>100</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5905,7 +5935,7 @@
         <v>0.0001</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J29" s="12" t="n">
         <v>66</v>
@@ -5935,19 +5965,19 @@
         <v>2</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T29" s="12" t="n">
         <v>80</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,7 +6006,7 @@
         <v>0.0001</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J30" s="12" t="n">
         <v>68</v>
@@ -6006,19 +6036,19 @@
         <v>16</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T30" s="12" t="n">
         <v>73</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6047,7 +6077,7 @@
         <v>0.0001</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>117</v>
@@ -6077,19 +6107,19 @@
         <v>16</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>120</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="V31" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="W31" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="W31" s="12" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6109,10 +6139,10 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AD23"/>
+  <dimension ref="A2:AD26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="W27" activeCellId="0" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6126,9 +6156,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.46"/>
@@ -6150,88 +6180,88 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6260,10 +6290,10 @@
         <v>0.0001</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>6</v>
@@ -6308,13 +6338,13 @@
         <v>50</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6343,10 +6373,10 @@
         <v>1E-005</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>7</v>
@@ -6391,16 +6421,16 @@
         <v>50</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6429,10 +6459,10 @@
         <v>1E-005</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>9</v>
@@ -6477,13 +6507,13 @@
         <v>50</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6512,10 +6542,10 @@
         <v>1E-005</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>0</v>
@@ -6536,10 +6566,10 @@
         <v>50</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,10 +6598,10 @@
         <v>1E-005</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>6</v>
@@ -6616,13 +6646,13 @@
         <v>7</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6651,10 +6681,10 @@
         <v>1E-005</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>50</v>
@@ -6699,13 +6729,13 @@
         <v>50</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6734,16 +6764,16 @@
         <v>0.0001</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>0</v>
@@ -6764,13 +6794,13 @@
         <v>50</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,16 +6829,16 @@
         <v>0.0001</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>50</v>
@@ -6853,13 +6883,13 @@
         <v>50</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6888,16 +6918,16 @@
         <v>0.0001</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>50</v>
@@ -6942,13 +6972,13 @@
         <v>50</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6977,16 +7007,16 @@
         <v>0.0001</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>100</v>
@@ -7031,13 +7061,13 @@
         <v>100</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7060,16 +7090,16 @@
         <v>0.3</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>1</v>
@@ -7090,13 +7120,13 @@
         <v>50</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7122,16 +7152,16 @@
         <v>0.0001</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>31</v>
@@ -7176,13 +7206,13 @@
         <v>31</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7208,16 +7238,16 @@
         <v>0.0001</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>1</v>
@@ -7238,13 +7268,13 @@
         <v>50</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7270,16 +7300,16 @@
         <v>0.0001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>1</v>
@@ -7300,10 +7330,10 @@
         <v>50</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,16 +7359,16 @@
         <v>0.0001</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>1</v>
@@ -7359,10 +7389,10 @@
         <v>50</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7388,16 +7418,16 @@
         <v>0.0001</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>50</v>
@@ -7442,13 +7472,13 @@
         <v>50</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7474,16 +7504,16 @@
         <v>0.0001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>84</v>
@@ -7528,13 +7558,13 @@
         <v>100</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC19" s="16" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7560,16 +7590,16 @@
         <v>0.0001</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>94</v>
@@ -7614,13 +7644,13 @@
         <v>95</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AB20" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC20" s="16" t="s">
         <v>399</v>
-      </c>
-      <c r="AC20" s="16" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7646,16 +7676,16 @@
         <v>0.0001</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>91</v>
@@ -7700,13 +7730,13 @@
         <v>95</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AC21" s="16" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7732,16 +7762,16 @@
         <v>0.0001</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>81</v>
@@ -7786,13 +7816,13 @@
         <v>85</v>
       </c>
       <c r="AA22" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7818,16 +7848,40 @@
         <v>0.0001</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.013772</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0.018315</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0.008273</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>34.887851</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>0.972353</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>0.981772</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>0.997868</v>
       </c>
       <c r="U23" s="0" t="n">
         <v>1</v>
@@ -7845,16 +7899,274 @@
         <v>16</v>
       </c>
       <c r="Z23" s="0" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AB23" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC23" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="AC23" s="0" t="s">
-        <v>404</v>
+    </row>
+    <row r="24" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>20250913</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.013903</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.027678</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0.008559</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>31.172416</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>0.972035</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>0.983351</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>0.993088</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>20250919</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0.010088</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0.00694</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>32.090603</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>0.979996</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>0.988691</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>0.994472</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA25" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>20250920</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0.011729</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0.02419</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>0.006932</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>32.340737</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>0.974438</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>0.992585</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>0.995979</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA26" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -7887,49 +8199,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7980,70 +8292,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,7 +8384,7 @@
         <v>6E-005</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
@@ -8090,13 +8402,13 @@
         <v>40</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8371,40 +8683,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8415,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>48</v>
@@ -8439,10 +8751,10 @@
         <v>0.9048</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8453,10 +8765,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>48</v>
@@ -8477,10 +8789,10 @@
         <v>0.914611</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8491,10 +8803,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>48</v>
@@ -8515,10 +8827,10 @@
         <v>0.942267</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8529,10 +8841,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>48</v>
@@ -8553,10 +8865,10 @@
         <v>0.957528</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8567,10 +8879,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>48</v>
@@ -8591,10 +8903,10 @@
         <v>0.939194</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8605,10 +8917,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>24</v>
@@ -8629,10 +8941,10 @@
         <v>0.95064</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8643,10 +8955,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>8</v>
@@ -8667,10 +8979,10 @@
         <v>0.963851</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -8707,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
@@ -8718,10 +9030,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8729,10 +9041,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8740,10 +9052,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8751,10 +9063,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8762,10 +9074,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8773,10 +9085,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8784,10 +9096,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8795,10 +9107,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -8830,7 +9142,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8841,597 +9153,597 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9442,47 +9754,47 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9493,12 +9805,12 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -9519,8 +9831,8 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9707,6 +10019,9 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>85</v>
       </c>
@@ -9715,14 +10030,24 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2"/>
@@ -9801,7 +10126,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9812,1217 +10137,1217 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11033,22 +11358,22 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11059,22 +11384,22 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11091,12 +11416,12 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -11129,18 +11454,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="B2" s="18" t="n">
         <v>447818529825</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -11172,17 +11497,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -11214,17 +11539,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -11257,89 +11582,89 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -11371,17 +11696,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11389,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11397,7 +11722,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11405,7 +11730,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11413,7 +11738,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11421,43 +11746,43 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="12" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -11489,44 +11814,44 @@
   <sheetData>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>
@@ -11565,10 +11890,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11576,16 +11901,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11593,7 +11918,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -11604,7 +11929,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -11615,7 +11940,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
@@ -11626,7 +11951,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10</v>
@@ -11637,13 +11962,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11651,13 +11976,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11665,13 +11990,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11679,7 +12004,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>5</v>
@@ -11690,7 +12015,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -11701,7 +12026,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -11712,7 +12037,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -11723,7 +12048,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>5</v>
@@ -11734,7 +12059,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -11745,7 +12070,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -11756,7 +12081,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -11767,7 +12092,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -11778,7 +12103,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2</v>
@@ -11813,17 +12138,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -11856,15 +12181,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
@@ -11898,87 +12223,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -12011,34 +12336,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -12071,23 +12396,23 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>804811</v>
@@ -12095,18 +12420,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -12139,10 +12464,10 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -12179,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12187,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12195,7 +12520,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12203,7 +12528,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12211,7 +12536,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12219,7 +12544,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12227,7 +12552,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12235,7 +12560,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12243,7 +12568,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -12276,18 +12601,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -12324,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -12338,135 +12663,135 @@
         <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -12503,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -12517,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>28</v>
@@ -12528,10 +12853,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12539,10 +12864,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12550,10 +12875,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12561,10 +12886,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12572,10 +12897,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12583,10 +12908,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12594,10 +12919,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -12634,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -12648,10 +12973,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12659,10 +12984,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12670,10 +12995,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12681,10 +13006,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12692,10 +13017,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12703,10 +13028,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12714,10 +13039,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12725,10 +13050,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -12765,10 +13090,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12776,10 +13101,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12787,25 +13112,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -12838,7 +13163,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
@@ -12846,25 +13171,25 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>80</v>
@@ -12872,17 +13197,17 @@
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>28</v>
@@ -12890,7 +13215,7 @@
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -12925,29 +13250,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>56</v>
@@ -12955,35 +13280,35 @@
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -12992,12 +13317,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -13006,55 +13331,55 @@
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/医疗AI.xlsx
+++ b/医疗AI.xlsx
@@ -42,6 +42,7 @@
     <sheet name="band" sheetId="32" state="visible" r:id="rId33"/>
     <sheet name="20250903_KickoffMTG議事録" sheetId="33" state="visible" r:id="rId34"/>
     <sheet name="图像前处理时做剪裁" sheetId="34" state="visible" r:id="rId35"/>
+    <sheet name="Unet成绩更好" sheetId="35" state="visible" r:id="rId36"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="955">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -382,6 +383,12 @@
   </si>
   <si>
     <t xml:space="preserve">002_inference.py:93:DATASET_CONFIG['test_fov_type'],这里需要和前边OUTPUT_FOLDER的数据类型一致，也就是说如果测试FovL数据，config.py:24的test_fov_type也要设置成FovL，同理"FovS_180", "FovS_360"也需要一致</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0003_EffUnetb2/dataset.py:88：image_normalized = (image_np - 2000) / 3000，这种变换方式应该是松井搞错了，现在值范围：-2000--1000,所以我觉得前处理应该image_normalized = (image_np + 2000) / 3000，转换到0-1范围内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注意：101_evaluate_multi_infer_AllSubjects.py:130：base_infer_path = INFER_FOLDERS[base_infer_name]，这里的base_infer_path是'EffUnetb0_FovL_phase_00'中取数据，也就是说prior_img，noisy_img，gt_img是从FovL中取的数据，所以restored_img也只能从FovL中取得，这样才能保证计算各种指标时，图像是对应的，否则不对应不能计算。所以不能使用FovS_180，FovS_360，所以上面的INFER_FOLDERS只能写入NNet_FovL的地址，而不能写入NNet_FovS180和NNet_FovS360</t>
   </si>
   <si>
     <t xml:space="preserve">功能名</t>
@@ -3136,6 +3143,24 @@
 異常値の影響低減：金属アーチファクトや測定誤差による極端値をウィンドウで切り捨てることで、画素単位の損失（L1/L2）や識別器への悪影響を抑えられる。
 収束の高速化と学習安定性の向上：小さい固定レンジの入力分布は最適化を安定させ、学習の収束を早める傾向がある。
 タスクに適した情報抽出：ノイズ除去ではウィンドウ内の軟部組織や解剖学的構造の復元が重要であり、ウィンドウ処理はモデルがその情報に集中できるようにする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原因</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNet并没什么名气，也没有什么使用者，而Unet和efficientnet更普及，被更多人验证，有更成熟的实现、更多预训练权重、是经过验证的、强大的现代架构。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用Unet+efficientnet-b0/efficientnet-b2训练时，加载了imagenet的预训练权重，这意味着它已经学会了识别各种通用、基础的特征，如边缘、角点、纹理、形状，甚至是更复杂的模式。利用这些预训练的权重作为高起点。网络不需要再从零学习这些基础特征，而只需要微调，学习如何将这些基础特征应用到CT图像这种特定领域，以及如何与解码器配合来执行“降噪”这个新任务。这极大地加速了收敛，降低了训练难度，并且由于起点更高，通常能达到更好的最终性能，尤其是在数据量不足时优势更为明显。虽然自然图像和CT图像差异很大，但低层次的视觉特征具有通用性。而NNet并不是传统的Unet网络，而是一种自定义网络，没有预训练模型，是从0开始训练的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss方面，两个网络使用不同 loss 很难比较</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选择模型时应优先考虑使用在ImageNet上预训练过的现代主干网络</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为了更好的降噪表现，可考虑使用monai提供的unet作为预训练模型重新训练降噪模型</t>
   </si>
 </sst>
 </file>
@@ -3878,35 +3903,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3939,23 +3964,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3991,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,7 +4032,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4067,70 +4092,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,7 +4178,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0.35093</v>
@@ -4177,13 +4202,13 @@
         <v>1</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,7 +4231,7 @@
         <v>0.5</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>1</v>
@@ -4215,13 +4240,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1.26325</v>
@@ -4268,13 +4293,13 @@
         <v>1</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>1</v>
@@ -4306,13 +4331,13 @@
         <v>1</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4337,7 +4362,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="n">
@@ -4365,17 +4390,17 @@
         <v>48</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,7 +4425,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P7" s="5" t="n">
         <v>0</v>
@@ -4412,19 +4437,19 @@
         <v>48</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>36</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4449,7 +4474,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0.03275</v>
@@ -4476,16 +4501,16 @@
         <v>48</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>120</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,7 +4535,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="n">
@@ -4538,16 +4563,16 @@
         <v>48</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T9" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,7 +4597,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="n">
@@ -4606,13 +4631,13 @@
         <v>40</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,7 +4662,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0.03817</v>
@@ -4664,16 +4689,16 @@
         <v>48</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,7 +4723,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -4728,19 +4753,19 @@
         <v>48</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,7 +4794,7 @@
         <v>2E-005</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>40</v>
@@ -4799,19 +4824,19 @@
         <v>48</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,7 +4865,7 @@
         <v>2E-005</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>40</v>
@@ -4870,16 +4895,16 @@
         <v>48</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,7 +4933,7 @@
         <v>6E-005</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>40</v>
@@ -4938,16 +4963,16 @@
         <v>48</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T15" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,7 +5001,7 @@
         <v>6E-005</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -5006,16 +5031,16 @@
         <v>48</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5044,7 +5069,7 @@
         <v>0.0001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -5074,19 +5099,19 @@
         <v>48</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>50</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,7 +5140,7 @@
         <v>0.0001</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -5145,19 +5170,19 @@
         <v>48</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5186,7 +5211,7 @@
         <v>0.0001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -5216,19 +5241,19 @@
         <v>48</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>40</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,13 +5276,13 @@
         <v>0.3</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H20" s="11" t="n">
         <v>4E-005</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>70</v>
@@ -5287,19 +5312,19 @@
         <v>48</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>120</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,7 +5353,7 @@
         <v>0.0001</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J21" s="12" t="n">
         <v>96</v>
@@ -5358,19 +5383,19 @@
         <v>48</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T21" s="12" t="n">
         <v>100</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5399,7 +5424,7 @@
         <v>0.0001</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J22" s="12" t="n">
         <v>116</v>
@@ -5429,19 +5454,19 @@
         <v>48</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T22" s="12" t="n">
         <v>130</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5470,7 +5495,7 @@
         <v>0.0001</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J23" s="12" t="n">
         <v>37</v>
@@ -5500,19 +5525,19 @@
         <v>24</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T23" s="12" t="n">
         <v>40</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5566,7 @@
         <v>0.0001</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J24" s="12" t="n">
         <v>78</v>
@@ -5571,19 +5596,19 @@
         <v>8</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="T24" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5612,7 +5637,7 @@
         <v>0.0001</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J25" s="12" t="n">
         <v>78</v>
@@ -5642,19 +5667,19 @@
         <v>48</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="T25" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,7 +5708,7 @@
         <v>0.0001</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J26" s="12" t="n">
         <v>85</v>
@@ -5713,19 +5738,19 @@
         <v>8</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T26" s="12" t="n">
         <v>90</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5754,7 +5779,7 @@
         <v>0.0001</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J27" s="12" t="n">
         <v>49</v>
@@ -5784,19 +5809,19 @@
         <v>4</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T27" s="12" t="n">
         <v>50</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,7 +5850,7 @@
         <v>0.0001</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J28" s="12" t="n">
         <v>93</v>
@@ -5855,19 +5880,19 @@
         <v>1</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T28" s="12" t="n">
         <v>100</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +5921,7 @@
         <v>0.0001</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J29" s="12" t="n">
         <v>66</v>
@@ -5926,19 +5951,19 @@
         <v>2</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T29" s="12" t="n">
         <v>80</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +5992,7 @@
         <v>0.0001</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J30" s="12" t="n">
         <v>68</v>
@@ -5997,19 +6022,19 @@
         <v>16</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T30" s="12" t="n">
         <v>73</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6038,7 +6063,7 @@
         <v>0.0001</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>117</v>
@@ -6068,19 +6093,19 @@
         <v>16</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>120</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="V31" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="W31" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="W31" s="12" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6138,79 +6163,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6239,7 +6264,7 @@
         <v>1E-005</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>50</v>
@@ -6278,13 +6303,13 @@
         <v>50</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6313,10 +6338,10 @@
         <v>0.0001</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>50</v>
@@ -6355,13 +6380,13 @@
         <v>50</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,10 +6415,10 @@
         <v>0.0001</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>50</v>
@@ -6432,13 +6457,13 @@
         <v>50</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6467,10 +6492,10 @@
         <v>0.0001</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>100</v>
@@ -6509,13 +6534,13 @@
         <v>100</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,10 +6569,10 @@
         <v>0.0001</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>31</v>
@@ -6586,13 +6611,13 @@
         <v>31</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6621,10 +6646,10 @@
         <v>0.0001</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>50</v>
@@ -6663,13 +6688,13 @@
         <v>50</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6698,10 +6723,10 @@
         <v>0.0001</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>84</v>
@@ -6740,13 +6765,13 @@
         <v>100</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6775,10 +6800,10 @@
         <v>0.0001</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>94</v>
@@ -6817,13 +6842,13 @@
         <v>95</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="X9" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,10 +6877,10 @@
         <v>0.0001</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>91</v>
@@ -6894,13 +6919,13 @@
         <v>95</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,10 +6954,10 @@
         <v>0.0001</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>81</v>
@@ -6971,13 +6996,13 @@
         <v>85</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7006,10 +7031,10 @@
         <v>0.0001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>53</v>
@@ -7048,13 +7073,13 @@
         <v>57</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="X12" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y12" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="Y12" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7083,10 +7108,10 @@
         <v>0.0001</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>99</v>
@@ -7125,13 +7150,13 @@
         <v>100</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7160,10 +7185,10 @@
         <v>0.0001</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>95</v>
@@ -7202,13 +7227,13 @@
         <v>200</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,10 +7262,10 @@
         <v>0.0001</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K15" s="3" t="n">
         <v>116</v>
@@ -7279,19 +7304,19 @@
         <v>200</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="X15" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="Z15" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
@@ -7324,10 +7349,10 @@
         <v>0.0001</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>100</v>
@@ -7366,13 +7391,13 @@
         <v>100</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
@@ -7405,10 +7430,10 @@
         <v>0.0001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>41</v>
@@ -7447,10 +7472,10 @@
         <v>100</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Y17" s="3"/>
     </row>
@@ -7480,10 +7505,10 @@
         <v>0.0001</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>100</v>
@@ -7522,16 +7547,16 @@
         <v>100</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
@@ -7564,10 +7589,10 @@
         <v>0.0001</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K19" s="3" t="n">
         <v>77</v>
@@ -7606,10 +7631,10 @@
         <v>100</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
@@ -7642,10 +7667,10 @@
         <v>0.0001</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>81</v>
@@ -7684,10 +7709,10 @@
         <v>100</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7716,10 +7741,10 @@
         <v>0.0001</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K21" s="3" t="n">
         <v>56</v>
@@ -7758,10 +7783,10 @@
         <v>100</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
@@ -7794,10 +7819,10 @@
         <v>0.0001</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K22" s="3" t="n">
         <v>38</v>
@@ -7836,10 +7861,10 @@
         <v>100</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z22" s="3" t="n">
         <v>5</v>
@@ -7875,10 +7900,10 @@
         <v>0.0001</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>34</v>
@@ -7917,10 +7942,10 @@
         <v>100</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Z23" s="0" t="n">
         <v>4</v>
@@ -7952,10 +7977,10 @@
         <v>0.0001</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>32</v>
@@ -7994,10 +8019,10 @@
         <v>100</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z24" s="0" t="n">
         <v>6</v>
@@ -8033,49 +8058,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -8126,70 +8151,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8218,7 +8243,7 @@
         <v>6E-005</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
@@ -8236,13 +8261,13 @@
         <v>40</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8517,40 +8542,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8561,10 +8586,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>48</v>
@@ -8585,10 +8610,10 @@
         <v>0.9048</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8599,10 +8624,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>48</v>
@@ -8623,10 +8648,10 @@
         <v>0.914611</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8637,10 +8662,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>48</v>
@@ -8661,10 +8686,10 @@
         <v>0.942267</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8675,10 +8700,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>48</v>
@@ -8699,10 +8724,10 @@
         <v>0.957528</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8713,10 +8738,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>48</v>
@@ -8737,10 +8762,10 @@
         <v>0.939194</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8751,10 +8776,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>24</v>
@@ -8775,10 +8800,10 @@
         <v>0.95064</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8789,10 +8814,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>8</v>
@@ -8813,10 +8838,10 @@
         <v>0.963851</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -8853,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
@@ -8864,10 +8889,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8875,10 +8900,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8886,10 +8911,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8897,10 +8922,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8908,10 +8933,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8919,10 +8944,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8930,10 +8955,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8941,10 +8966,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -8976,7 +9001,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8987,597 +9012,597 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9588,47 +9613,47 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9639,12 +9664,12 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -9960,7 +9985,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9971,1217 +9996,1217 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11192,22 +11217,22 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11218,22 +11243,22 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11250,12 +11275,12 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -11288,18 +11313,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B2" s="18" t="n">
         <v>447818529825</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -11331,17 +11356,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -11373,17 +11398,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -11416,89 +11441,89 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -11530,17 +11555,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11548,7 +11573,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11556,7 +11581,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11564,7 +11589,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11572,7 +11597,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11580,43 +11605,43 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="12" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -11648,44 +11673,44 @@
   <sheetData>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -11724,10 +11749,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11735,16 +11760,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11752,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -11763,7 +11788,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -11774,7 +11799,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
@@ -11785,7 +11810,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10</v>
@@ -11796,13 +11821,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11810,13 +11835,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11824,13 +11849,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11838,7 +11863,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>5</v>
@@ -11849,7 +11874,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -11860,7 +11885,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -11871,7 +11896,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -11882,7 +11907,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>5</v>
@@ -11893,7 +11918,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -11904,7 +11929,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -11915,7 +11940,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -11926,7 +11951,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -11937,7 +11962,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2</v>
@@ -11972,17 +11997,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -12015,15 +12040,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -12043,10 +12068,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12148,6 +12173,16 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -12180,34 +12215,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -12240,23 +12275,23 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>804811</v>
@@ -12264,18 +12299,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -12308,10 +12343,10 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -12348,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12356,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12364,7 +12399,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12372,7 +12407,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12380,7 +12415,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12388,7 +12423,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12396,7 +12431,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12404,7 +12439,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12412,7 +12447,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -12445,18 +12480,94 @@
   <sheetData>
     <row r="1" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="142.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -12493,7 +12604,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -12507,135 +12618,135 @@
         <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -12672,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -12686,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>28</v>
@@ -12697,10 +12808,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12708,10 +12819,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12719,10 +12830,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12730,10 +12841,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12741,10 +12852,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12752,10 +12863,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12763,10 +12874,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -12803,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -12817,10 +12928,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12828,10 +12939,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12839,10 +12950,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12850,10 +12961,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12861,10 +12972,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12872,10 +12983,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12883,10 +12994,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12894,10 +13005,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -12934,10 +13045,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12945,10 +13056,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12956,25 +13067,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -13007,7 +13118,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>56</v>
@@ -13015,25 +13126,25 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>80</v>
@@ -13041,17 +13152,17 @@
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>28</v>
@@ -13059,7 +13170,7 @@
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -13094,29 +13205,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>56</v>
@@ -13124,35 +13235,35 @@
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -13161,12 +13272,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -13175,55 +13286,55 @@
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/医疗AI.xlsx
+++ b/医疗AI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="MonAI相关" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1083">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -1452,7 +1452,7 @@
     <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/6pjtn9ot</t>
   </si>
   <si>
-    <t xml:space="preserve">experiments/Nnet/FovL/20251021_103049</t>
+    <t xml:space="preserve">experiments/Nnet/FovL/20251026_103049</t>
   </si>
   <si>
     <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/v2dpac39</t>
@@ -1693,6 +1693,12 @@
   </si>
   <si>
     <t xml:space="preserve">变清晰了很多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiments/Nnet/FovL/20251028_224455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wandb.ai/guiju/nnet-medical-ct/runs/erex218w</t>
   </si>
   <si>
     <t xml:space="preserve">修改作业</t>
@@ -6737,10 +6743,10 @@
   </sheetPr>
   <dimension ref="A1:AK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="AF24" activeCellId="0" sqref="AF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10679,6 +10685,30 @@
       <c r="S42" s="16" t="n">
         <v>1</v>
       </c>
+      <c r="T42" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.028897</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0.027121</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>0.009679</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <v>31.633596</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <v>0.924483</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <v>0.985742</v>
+      </c>
+      <c r="AA42" s="0" t="n">
+        <v>0.99678</v>
+      </c>
       <c r="AB42" s="0" t="n">
         <v>1</v>
       </c>
@@ -10756,6 +10786,30 @@
       <c r="S43" s="16" t="n">
         <v>1</v>
       </c>
+      <c r="T43" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.026068</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0.024509</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>0.008727</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <v>32.389068</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <v>0.932282</v>
+      </c>
+      <c r="Z43" s="0" t="n">
+        <v>0.987656</v>
+      </c>
+      <c r="AA43" s="0" t="n">
+        <v>0.994271</v>
+      </c>
       <c r="AB43" s="0" t="n">
         <v>1</v>
       </c>
@@ -10764,6 +10818,12 @@
       </c>
       <c r="AE43" s="3" t="n">
         <v>100</v>
+      </c>
+      <c r="AF43" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="AG43" s="0" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -10801,13 +10861,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10815,13 +10875,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10829,13 +10889,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10843,10 +10903,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10854,10 +10914,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10865,18 +10925,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -10916,19 +10976,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10942,13 +11002,13 @@
         <v>-900</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10962,13 +11022,13 @@
         <v>-600</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10982,13 +11042,13 @@
         <v>160</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -11031,13 +11091,13 @@
         <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11045,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.16</v>
@@ -11063,7 +11123,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.016</v>
@@ -11080,10 +11140,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.018</v>
@@ -11098,10 +11158,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0038</v>
@@ -11115,7 +11175,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.05289</v>
@@ -11130,7 +11190,7 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.00631</v>
@@ -11145,7 +11205,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0.03</v>
@@ -11160,7 +11220,7 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -11177,7 +11237,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0.1</v>
@@ -11186,7 +11246,7 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0.3</v>
@@ -11195,7 +11255,7 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0.3</v>
@@ -11204,7 +11264,7 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0.1</v>
@@ -11213,7 +11273,7 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>0.2</v>
@@ -11254,13 +11314,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11268,10 +11328,10 @@
         <v>177</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11279,10 +11339,10 @@
         <v>129</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11290,13 +11350,13 @@
         <v>244</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -11457,13 +11517,13 @@
         <v>40</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12022,7 +12082,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>129</v>
@@ -12034,7 +12094,7 @@
         <v>244</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>246</v>
@@ -12055,7 +12115,7 @@
         <v>56</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12066,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>265</v>
@@ -12090,10 +12150,10 @@
         <v>0.9048</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12104,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>265</v>
@@ -12128,10 +12188,10 @@
         <v>0.914611</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12142,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>265</v>
@@ -12166,10 +12226,10 @@
         <v>0.942267</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12180,7 +12240,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>315</v>
@@ -12204,10 +12264,10 @@
         <v>0.957528</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12218,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>315</v>
@@ -12242,10 +12302,10 @@
         <v>0.939194</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12256,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>315</v>
@@ -12280,10 +12340,10 @@
         <v>0.95064</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12294,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>315</v>
@@ -12318,10 +12378,10 @@
         <v>0.963851</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -12369,10 +12429,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12380,10 +12440,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12391,10 +12451,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12402,10 +12462,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12413,10 +12473,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12424,10 +12484,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12435,10 +12495,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12446,10 +12506,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -12481,7 +12541,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12492,597 +12552,597 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13093,47 +13153,47 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13144,12 +13204,12 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -13181,7 +13241,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13192,1217 +13252,1217 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14413,22 +14473,22 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14439,22 +14499,22 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14471,12 +14531,12 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -14509,18 +14569,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B2" s="21" t="n">
         <v>447818529825</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -14552,17 +14612,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -14594,17 +14654,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -14637,89 +14697,89 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -14751,17 +14811,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14769,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14777,7 +14837,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14785,7 +14845,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14793,7 +14853,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14801,43 +14861,43 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="13" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -14869,44 +14929,44 @@
   <sheetData>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
   </sheetData>
@@ -15106,7 +15166,7 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15114,16 +15174,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15131,7 +15191,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -15142,7 +15202,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -15153,7 +15213,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
@@ -15164,7 +15224,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10</v>
@@ -15175,13 +15235,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15189,13 +15249,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15203,13 +15263,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15217,7 +15277,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>5</v>
@@ -15228,7 +15288,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -15239,7 +15299,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -15250,7 +15310,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -15261,7 +15321,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>5</v>
@@ -15272,7 +15332,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -15283,7 +15343,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -15294,7 +15354,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -15305,7 +15365,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -15316,7 +15376,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2</v>
@@ -15351,17 +15411,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -15394,15 +15454,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -15436,31 +15496,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>232</v>
@@ -15496,23 +15556,23 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>804811</v>
@@ -15520,18 +15580,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -15564,10 +15624,10 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -15604,7 +15664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="144.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15612,7 +15672,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15620,7 +15680,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15628,7 +15688,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15636,7 +15696,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15644,7 +15704,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15652,7 +15712,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15660,7 +15720,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15668,7 +15728,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -15701,18 +15761,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -15748,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15756,7 +15816,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15764,7 +15824,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15772,7 +15832,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15780,7 +15840,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15788,12 +15848,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -15814,7 +15874,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -15828,13 +15888,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15842,7 +15902,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>-500</v>
@@ -15856,7 +15916,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>-260</v>
@@ -15870,7 +15930,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>-700</v>
